--- a/Spring MVC課題/001_テーブル設計書.xlsx
+++ b/Spring MVC課題/001_テーブル設計書.xlsx
@@ -777,6 +777,24 @@
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,22 +837,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,14 +864,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -872,18 +884,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1364,185 +1364,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="str">
+      <c r="A1" s="35" t="str">
         <f>[1]改版履歴!A1</f>
         <v>技術者経歴書管理システム</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="23" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="24" t="str">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="30" t="str">
         <f>[1]改版履歴!AC1</f>
         <v>001</v>
       </c>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="23" t="s">
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="23" t="s">
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="22"/>
-      <c r="BR1" s="22"/>
-      <c r="BS1" s="22"/>
-      <c r="BT1" s="22"/>
-      <c r="BU1" s="22"/>
-      <c r="BV1" s="22"/>
-      <c r="BW1" s="22"/>
-      <c r="BX1" s="22"/>
-      <c r="BY1" s="22"/>
-      <c r="BZ1" s="22"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
     </row>
     <row r="2" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="23" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="24" t="str">
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="30" t="str">
         <f>[1]改版履歴!AC2</f>
         <v>テーブル設計書</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="23" t="s">
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="23" t="s">
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="23"/>
-      <c r="BO2" s="23"/>
-      <c r="BP2" s="23"/>
-      <c r="BQ2" s="22"/>
-      <c r="BR2" s="22"/>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="22"/>
-      <c r="BU2" s="22"/>
-      <c r="BV2" s="22"/>
-      <c r="BW2" s="22"/>
-      <c r="BX2" s="22"/>
-      <c r="BY2" s="22"/>
-      <c r="BZ2" s="22"/>
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="28"/>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
     </row>
     <row r="3" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
@@ -2000,35 +2000,35 @@
     </row>
     <row r="7" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
@@ -2250,98 +2250,98 @@
     </row>
     <row r="9" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21" t="s">
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21" t="s">
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21" t="s">
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21" t="s">
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21"/>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21" t="s">
+      <c r="AX9" s="27"/>
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="27"/>
+      <c r="BC9" s="27"/>
+      <c r="BD9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21"/>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21"/>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21"/>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21"/>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
+      <c r="BE9" s="27"/>
+      <c r="BF9" s="27"/>
+      <c r="BG9" s="27"/>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="27"/>
+      <c r="BJ9" s="27"/>
+      <c r="BK9" s="27"/>
+      <c r="BL9" s="27"/>
+      <c r="BM9" s="27"/>
+      <c r="BN9" s="27"/>
+      <c r="BO9" s="27"/>
+      <c r="BP9" s="27"/>
+      <c r="BQ9" s="27"/>
+      <c r="BR9" s="27"/>
+      <c r="BS9" s="27"/>
+      <c r="BT9" s="27"/>
+      <c r="BU9" s="27"/>
+      <c r="BV9" s="27"/>
+      <c r="BW9" s="27"/>
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="27"/>
       <c r="BZ9" s="7"/>
       <c r="CA9" s="7"/>
       <c r="CB9" s="7"/>
@@ -2390,82 +2390,82 @@
     </row>
     <row r="10" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="33"/>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="33"/>
-      <c r="AW10" s="33"/>
-      <c r="AX10" s="33"/>
-      <c r="AY10" s="33"/>
-      <c r="AZ10" s="33"/>
-      <c r="BA10" s="33"/>
-      <c r="BB10" s="33"/>
-      <c r="BC10" s="33"/>
-      <c r="BD10" s="34"/>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-      <c r="BI10" s="34"/>
-      <c r="BJ10" s="34"/>
-      <c r="BK10" s="34"/>
-      <c r="BL10" s="34"/>
-      <c r="BM10" s="34"/>
-      <c r="BN10" s="34"/>
-      <c r="BO10" s="34"/>
-      <c r="BP10" s="34"/>
-      <c r="BQ10" s="34"/>
-      <c r="BR10" s="34"/>
-      <c r="BS10" s="34"/>
-      <c r="BT10" s="34"/>
-      <c r="BU10" s="34"/>
-      <c r="BV10" s="34"/>
-      <c r="BW10" s="34"/>
-      <c r="BX10" s="34"/>
-      <c r="BY10" s="34"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="20"/>
+      <c r="BQ10" s="20"/>
+      <c r="BR10" s="20"/>
+      <c r="BS10" s="20"/>
+      <c r="BT10" s="20"/>
+      <c r="BU10" s="20"/>
+      <c r="BV10" s="20"/>
+      <c r="BW10" s="20"/>
+      <c r="BX10" s="20"/>
+      <c r="BY10" s="20"/>
       <c r="BZ10" s="7"/>
       <c r="CA10" s="7"/>
       <c r="CB10" s="7"/>
@@ -2514,82 +2514,82 @@
     </row>
     <row r="11" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="33"/>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="33"/>
-      <c r="BB11" s="33"/>
-      <c r="BC11" s="33"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="34"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="34"/>
-      <c r="BP11" s="34"/>
-      <c r="BQ11" s="34"/>
-      <c r="BR11" s="34"/>
-      <c r="BS11" s="34"/>
-      <c r="BT11" s="34"/>
-      <c r="BU11" s="34"/>
-      <c r="BV11" s="34"/>
-      <c r="BW11" s="34"/>
-      <c r="BX11" s="34"/>
-      <c r="BY11" s="34"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" s="19"/>
+      <c r="BB11" s="19"/>
+      <c r="BC11" s="19"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20"/>
+      <c r="BN11" s="20"/>
+      <c r="BO11" s="20"/>
+      <c r="BP11" s="20"/>
+      <c r="BQ11" s="20"/>
+      <c r="BR11" s="20"/>
+      <c r="BS11" s="20"/>
+      <c r="BT11" s="20"/>
+      <c r="BU11" s="20"/>
+      <c r="BV11" s="20"/>
+      <c r="BW11" s="20"/>
+      <c r="BX11" s="20"/>
+      <c r="BY11" s="20"/>
       <c r="BZ11" s="7"/>
       <c r="CA11" s="7"/>
       <c r="CB11" s="7"/>
@@ -2638,82 +2638,82 @@
     </row>
     <row r="12" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="33"/>
-      <c r="BB12" s="33"/>
-      <c r="BC12" s="33"/>
-      <c r="BD12" s="34"/>
-      <c r="BE12" s="34"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="34"/>
-      <c r="BI12" s="34"/>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="34"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="34"/>
-      <c r="BN12" s="34"/>
-      <c r="BO12" s="34"/>
-      <c r="BP12" s="34"/>
-      <c r="BQ12" s="34"/>
-      <c r="BR12" s="34"/>
-      <c r="BS12" s="34"/>
-      <c r="BT12" s="34"/>
-      <c r="BU12" s="34"/>
-      <c r="BV12" s="34"/>
-      <c r="BW12" s="34"/>
-      <c r="BX12" s="34"/>
-      <c r="BY12" s="34"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BM12" s="20"/>
+      <c r="BN12" s="20"/>
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="20"/>
+      <c r="BQ12" s="20"/>
+      <c r="BR12" s="20"/>
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="20"/>
+      <c r="BU12" s="20"/>
+      <c r="BV12" s="20"/>
+      <c r="BW12" s="20"/>
+      <c r="BX12" s="20"/>
+      <c r="BY12" s="20"/>
       <c r="BZ12" s="7"/>
       <c r="CA12" s="7"/>
       <c r="CB12" s="7"/>
@@ -2762,82 +2762,82 @@
     </row>
     <row r="13" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="33"/>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="33"/>
-      <c r="BD13" s="35"/>
-      <c r="BE13" s="34"/>
-      <c r="BF13" s="34"/>
-      <c r="BG13" s="34"/>
-      <c r="BH13" s="34"/>
-      <c r="BI13" s="34"/>
-      <c r="BJ13" s="34"/>
-      <c r="BK13" s="34"/>
-      <c r="BL13" s="34"/>
-      <c r="BM13" s="34"/>
-      <c r="BN13" s="34"/>
-      <c r="BO13" s="34"/>
-      <c r="BP13" s="34"/>
-      <c r="BQ13" s="34"/>
-      <c r="BR13" s="34"/>
-      <c r="BS13" s="34"/>
-      <c r="BT13" s="34"/>
-      <c r="BU13" s="34"/>
-      <c r="BV13" s="34"/>
-      <c r="BW13" s="34"/>
-      <c r="BX13" s="34"/>
-      <c r="BY13" s="34"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="19"/>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="19"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="20"/>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="20"/>
+      <c r="BR13" s="20"/>
+      <c r="BS13" s="20"/>
+      <c r="BT13" s="20"/>
+      <c r="BU13" s="20"/>
+      <c r="BV13" s="20"/>
+      <c r="BW13" s="20"/>
+      <c r="BX13" s="20"/>
+      <c r="BY13" s="20"/>
       <c r="BZ13" s="7"/>
       <c r="CA13" s="7"/>
       <c r="CB13" s="7"/>
@@ -2886,82 +2886,82 @@
     </row>
     <row r="14" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="33"/>
-      <c r="BB14" s="33"/>
-      <c r="BC14" s="33"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="34"/>
-      <c r="BN14" s="34"/>
-      <c r="BO14" s="34"/>
-      <c r="BP14" s="34"/>
-      <c r="BQ14" s="34"/>
-      <c r="BR14" s="34"/>
-      <c r="BS14" s="34"/>
-      <c r="BT14" s="34"/>
-      <c r="BU14" s="34"/>
-      <c r="BV14" s="34"/>
-      <c r="BW14" s="34"/>
-      <c r="BX14" s="34"/>
-      <c r="BY14" s="34"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="19"/>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="19"/>
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="20"/>
+      <c r="BF14" s="20"/>
+      <c r="BG14" s="20"/>
+      <c r="BH14" s="20"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="20"/>
+      <c r="BO14" s="20"/>
+      <c r="BP14" s="20"/>
+      <c r="BQ14" s="20"/>
+      <c r="BR14" s="20"/>
+      <c r="BS14" s="20"/>
+      <c r="BT14" s="20"/>
+      <c r="BU14" s="20"/>
+      <c r="BV14" s="20"/>
+      <c r="BW14" s="20"/>
+      <c r="BX14" s="20"/>
+      <c r="BY14" s="20"/>
       <c r="BZ14" s="7"/>
       <c r="CA14" s="7"/>
       <c r="CB14" s="7"/>
@@ -3010,82 +3010,82 @@
     </row>
     <row r="15" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
-      <c r="AX15" s="33"/>
-      <c r="AY15" s="33"/>
-      <c r="AZ15" s="33"/>
-      <c r="BA15" s="33"/>
-      <c r="BB15" s="33"/>
-      <c r="BC15" s="33"/>
-      <c r="BD15" s="34"/>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="34"/>
-      <c r="BI15" s="34"/>
-      <c r="BJ15" s="34"/>
-      <c r="BK15" s="34"/>
-      <c r="BL15" s="34"/>
-      <c r="BM15" s="34"/>
-      <c r="BN15" s="34"/>
-      <c r="BO15" s="34"/>
-      <c r="BP15" s="34"/>
-      <c r="BQ15" s="34"/>
-      <c r="BR15" s="34"/>
-      <c r="BS15" s="34"/>
-      <c r="BT15" s="34"/>
-      <c r="BU15" s="34"/>
-      <c r="BV15" s="34"/>
-      <c r="BW15" s="34"/>
-      <c r="BX15" s="34"/>
-      <c r="BY15" s="34"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="19"/>
+      <c r="BA15" s="19"/>
+      <c r="BB15" s="19"/>
+      <c r="BC15" s="19"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="20"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
+      <c r="BM15" s="20"/>
+      <c r="BN15" s="20"/>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="20"/>
+      <c r="BQ15" s="20"/>
+      <c r="BR15" s="20"/>
+      <c r="BS15" s="20"/>
+      <c r="BT15" s="20"/>
+      <c r="BU15" s="20"/>
+      <c r="BV15" s="20"/>
+      <c r="BW15" s="20"/>
+      <c r="BX15" s="20"/>
+      <c r="BY15" s="20"/>
       <c r="BZ15" s="7"/>
       <c r="CA15" s="7"/>
       <c r="CB15" s="7"/>
@@ -3134,82 +3134,82 @@
     </row>
     <row r="16" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="33"/>
-      <c r="BA16" s="33"/>
-      <c r="BB16" s="33"/>
-      <c r="BC16" s="33"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="34"/>
-      <c r="BI16" s="34"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="34"/>
-      <c r="BL16" s="34"/>
-      <c r="BM16" s="34"/>
-      <c r="BN16" s="34"/>
-      <c r="BO16" s="34"/>
-      <c r="BP16" s="34"/>
-      <c r="BQ16" s="34"/>
-      <c r="BR16" s="34"/>
-      <c r="BS16" s="34"/>
-      <c r="BT16" s="34"/>
-      <c r="BU16" s="34"/>
-      <c r="BV16" s="34"/>
-      <c r="BW16" s="34"/>
-      <c r="BX16" s="34"/>
-      <c r="BY16" s="34"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="19"/>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="20"/>
+      <c r="BF16" s="20"/>
+      <c r="BG16" s="20"/>
+      <c r="BH16" s="20"/>
+      <c r="BI16" s="20"/>
+      <c r="BJ16" s="20"/>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="20"/>
+      <c r="BM16" s="20"/>
+      <c r="BN16" s="20"/>
+      <c r="BO16" s="20"/>
+      <c r="BP16" s="20"/>
+      <c r="BQ16" s="20"/>
+      <c r="BR16" s="20"/>
+      <c r="BS16" s="20"/>
+      <c r="BT16" s="20"/>
+      <c r="BU16" s="20"/>
+      <c r="BV16" s="20"/>
+      <c r="BW16" s="20"/>
+      <c r="BX16" s="20"/>
+      <c r="BY16" s="20"/>
       <c r="BZ16" s="7"/>
       <c r="CA16" s="7"/>
       <c r="CB16" s="7"/>
@@ -3258,82 +3258,82 @@
     </row>
     <row r="17" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="33"/>
-      <c r="AX17" s="33"/>
-      <c r="AY17" s="33"/>
-      <c r="AZ17" s="33"/>
-      <c r="BA17" s="33"/>
-      <c r="BB17" s="33"/>
-      <c r="BC17" s="33"/>
-      <c r="BD17" s="34"/>
-      <c r="BE17" s="34"/>
-      <c r="BF17" s="34"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="34"/>
-      <c r="BI17" s="34"/>
-      <c r="BJ17" s="34"/>
-      <c r="BK17" s="34"/>
-      <c r="BL17" s="34"/>
-      <c r="BM17" s="34"/>
-      <c r="BN17" s="34"/>
-      <c r="BO17" s="34"/>
-      <c r="BP17" s="34"/>
-      <c r="BQ17" s="34"/>
-      <c r="BR17" s="34"/>
-      <c r="BS17" s="34"/>
-      <c r="BT17" s="34"/>
-      <c r="BU17" s="34"/>
-      <c r="BV17" s="34"/>
-      <c r="BW17" s="34"/>
-      <c r="BX17" s="34"/>
-      <c r="BY17" s="34"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="19"/>
+      <c r="BB17" s="19"/>
+      <c r="BC17" s="19"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="20"/>
+      <c r="BG17" s="20"/>
+      <c r="BH17" s="20"/>
+      <c r="BI17" s="20"/>
+      <c r="BJ17" s="20"/>
+      <c r="BK17" s="20"/>
+      <c r="BL17" s="20"/>
+      <c r="BM17" s="20"/>
+      <c r="BN17" s="20"/>
+      <c r="BO17" s="20"/>
+      <c r="BP17" s="20"/>
+      <c r="BQ17" s="20"/>
+      <c r="BR17" s="20"/>
+      <c r="BS17" s="20"/>
+      <c r="BT17" s="20"/>
+      <c r="BU17" s="20"/>
+      <c r="BV17" s="20"/>
+      <c r="BW17" s="20"/>
+      <c r="BX17" s="20"/>
+      <c r="BY17" s="20"/>
       <c r="BZ17" s="7"/>
       <c r="CA17" s="7"/>
       <c r="CB17" s="7"/>
@@ -3382,82 +3382,82 @@
     </row>
     <row r="18" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="33"/>
-      <c r="AX18" s="33"/>
-      <c r="AY18" s="33"/>
-      <c r="AZ18" s="33"/>
-      <c r="BA18" s="33"/>
-      <c r="BB18" s="33"/>
-      <c r="BC18" s="33"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="34"/>
-      <c r="BI18" s="34"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="34"/>
-      <c r="BL18" s="34"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="34"/>
-      <c r="BO18" s="34"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="34"/>
-      <c r="BR18" s="34"/>
-      <c r="BS18" s="34"/>
-      <c r="BT18" s="34"/>
-      <c r="BU18" s="34"/>
-      <c r="BV18" s="34"/>
-      <c r="BW18" s="34"/>
-      <c r="BX18" s="34"/>
-      <c r="BY18" s="34"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" s="19"/>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="19"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="20"/>
+      <c r="BG18" s="20"/>
+      <c r="BH18" s="20"/>
+      <c r="BI18" s="20"/>
+      <c r="BJ18" s="20"/>
+      <c r="BK18" s="20"/>
+      <c r="BL18" s="20"/>
+      <c r="BM18" s="20"/>
+      <c r="BN18" s="20"/>
+      <c r="BO18" s="20"/>
+      <c r="BP18" s="20"/>
+      <c r="BQ18" s="20"/>
+      <c r="BR18" s="20"/>
+      <c r="BS18" s="20"/>
+      <c r="BT18" s="20"/>
+      <c r="BU18" s="20"/>
+      <c r="BV18" s="20"/>
+      <c r="BW18" s="20"/>
+      <c r="BX18" s="20"/>
+      <c r="BY18" s="20"/>
       <c r="BZ18" s="7"/>
       <c r="CA18" s="7"/>
       <c r="CB18" s="7"/>
@@ -3505,1369 +3505,1177 @@
       <c r="DX18" s="7"/>
     </row>
     <row r="19" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="33"/>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="33"/>
-      <c r="AX19" s="33"/>
-      <c r="AY19" s="33"/>
-      <c r="AZ19" s="33"/>
-      <c r="BA19" s="33"/>
-      <c r="BB19" s="33"/>
-      <c r="BC19" s="33"/>
-      <c r="BD19" s="35"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="34"/>
-      <c r="BI19" s="34"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="34"/>
-      <c r="BL19" s="34"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="34"/>
-      <c r="BP19" s="34"/>
-      <c r="BQ19" s="34"/>
-      <c r="BR19" s="34"/>
-      <c r="BS19" s="34"/>
-      <c r="BT19" s="34"/>
-      <c r="BU19" s="34"/>
-      <c r="BV19" s="34"/>
-      <c r="BW19" s="34"/>
-      <c r="BX19" s="34"/>
-      <c r="BY19" s="34"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="20"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="20"/>
+      <c r="BK19" s="20"/>
+      <c r="BL19" s="20"/>
+      <c r="BM19" s="20"/>
+      <c r="BN19" s="20"/>
+      <c r="BO19" s="20"/>
+      <c r="BP19" s="20"/>
+      <c r="BQ19" s="20"/>
+      <c r="BR19" s="20"/>
+      <c r="BS19" s="20"/>
+      <c r="BT19" s="20"/>
+      <c r="BU19" s="20"/>
+      <c r="BV19" s="20"/>
+      <c r="BW19" s="20"/>
+      <c r="BX19" s="20"/>
+      <c r="BY19" s="20"/>
     </row>
     <row r="20" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="33"/>
-      <c r="AS20" s="33"/>
-      <c r="AT20" s="33"/>
-      <c r="AU20" s="33"/>
-      <c r="AV20" s="33"/>
-      <c r="AW20" s="33"/>
-      <c r="AX20" s="33"/>
-      <c r="AY20" s="33"/>
-      <c r="AZ20" s="33"/>
-      <c r="BA20" s="33"/>
-      <c r="BB20" s="33"/>
-      <c r="BC20" s="33"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="34"/>
-      <c r="BF20" s="34"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="34"/>
-      <c r="BI20" s="34"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="34"/>
-      <c r="BL20" s="34"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="34"/>
-      <c r="BO20" s="34"/>
-      <c r="BP20" s="34"/>
-      <c r="BQ20" s="34"/>
-      <c r="BR20" s="34"/>
-      <c r="BS20" s="34"/>
-      <c r="BT20" s="34"/>
-      <c r="BU20" s="34"/>
-      <c r="BV20" s="34"/>
-      <c r="BW20" s="34"/>
-      <c r="BX20" s="34"/>
-      <c r="BY20" s="34"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="19"/>
+      <c r="AU20" s="19"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="20"/>
+      <c r="BH20" s="20"/>
+      <c r="BI20" s="20"/>
+      <c r="BJ20" s="20"/>
+      <c r="BK20" s="20"/>
+      <c r="BL20" s="20"/>
+      <c r="BM20" s="20"/>
+      <c r="BN20" s="20"/>
+      <c r="BO20" s="20"/>
+      <c r="BP20" s="20"/>
+      <c r="BQ20" s="20"/>
+      <c r="BR20" s="20"/>
+      <c r="BS20" s="20"/>
+      <c r="BT20" s="20"/>
+      <c r="BU20" s="20"/>
+      <c r="BV20" s="20"/>
+      <c r="BW20" s="20"/>
+      <c r="BX20" s="20"/>
+      <c r="BY20" s="20"/>
     </row>
     <row r="21" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="33"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="33"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="33"/>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="33"/>
-      <c r="AX21" s="33"/>
-      <c r="AY21" s="33"/>
-      <c r="AZ21" s="33"/>
-      <c r="BA21" s="33"/>
-      <c r="BB21" s="33"/>
-      <c r="BC21" s="33"/>
-      <c r="BD21" s="34"/>
-      <c r="BE21" s="34"/>
-      <c r="BF21" s="34"/>
-      <c r="BG21" s="34"/>
-      <c r="BH21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-      <c r="BK21" s="34"/>
-      <c r="BL21" s="34"/>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="34"/>
-      <c r="BO21" s="34"/>
-      <c r="BP21" s="34"/>
-      <c r="BQ21" s="34"/>
-      <c r="BR21" s="34"/>
-      <c r="BS21" s="34"/>
-      <c r="BT21" s="34"/>
-      <c r="BU21" s="34"/>
-      <c r="BV21" s="34"/>
-      <c r="BW21" s="34"/>
-      <c r="BX21" s="34"/>
-      <c r="BY21" s="34"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="19"/>
+      <c r="AU21" s="19"/>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="19"/>
+      <c r="AZ21" s="19"/>
+      <c r="BA21" s="19"/>
+      <c r="BB21" s="19"/>
+      <c r="BC21" s="19"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="20"/>
+      <c r="BG21" s="20"/>
+      <c r="BH21" s="20"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="20"/>
+      <c r="BK21" s="20"/>
+      <c r="BL21" s="20"/>
+      <c r="BM21" s="20"/>
+      <c r="BN21" s="20"/>
+      <c r="BO21" s="20"/>
+      <c r="BP21" s="20"/>
+      <c r="BQ21" s="20"/>
+      <c r="BR21" s="20"/>
+      <c r="BS21" s="20"/>
+      <c r="BT21" s="20"/>
+      <c r="BU21" s="20"/>
+      <c r="BV21" s="20"/>
+      <c r="BW21" s="20"/>
+      <c r="BX21" s="20"/>
+      <c r="BY21" s="20"/>
     </row>
     <row r="22" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="33"/>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="33"/>
-      <c r="AS22" s="33"/>
-      <c r="AT22" s="33"/>
-      <c r="AU22" s="33"/>
-      <c r="AV22" s="33"/>
-      <c r="AW22" s="33"/>
-      <c r="AX22" s="33"/>
-      <c r="AY22" s="33"/>
-      <c r="AZ22" s="33"/>
-      <c r="BA22" s="33"/>
-      <c r="BB22" s="33"/>
-      <c r="BC22" s="33"/>
-      <c r="BD22" s="34"/>
-      <c r="BE22" s="34"/>
-      <c r="BF22" s="34"/>
-      <c r="BG22" s="34"/>
-      <c r="BH22" s="34"/>
-      <c r="BI22" s="34"/>
-      <c r="BJ22" s="34"/>
-      <c r="BK22" s="34"/>
-      <c r="BL22" s="34"/>
-      <c r="BM22" s="34"/>
-      <c r="BN22" s="34"/>
-      <c r="BO22" s="34"/>
-      <c r="BP22" s="34"/>
-      <c r="BQ22" s="34"/>
-      <c r="BR22" s="34"/>
-      <c r="BS22" s="34"/>
-      <c r="BT22" s="34"/>
-      <c r="BU22" s="34"/>
-      <c r="BV22" s="34"/>
-      <c r="BW22" s="34"/>
-      <c r="BX22" s="34"/>
-      <c r="BY22" s="34"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="19"/>
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="20"/>
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="20"/>
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="20"/>
+      <c r="BK22" s="20"/>
+      <c r="BL22" s="20"/>
+      <c r="BM22" s="20"/>
+      <c r="BN22" s="20"/>
+      <c r="BO22" s="20"/>
+      <c r="BP22" s="20"/>
+      <c r="BQ22" s="20"/>
+      <c r="BR22" s="20"/>
+      <c r="BS22" s="20"/>
+      <c r="BT22" s="20"/>
+      <c r="BU22" s="20"/>
+      <c r="BV22" s="20"/>
+      <c r="BW22" s="20"/>
+      <c r="BX22" s="20"/>
+      <c r="BY22" s="20"/>
     </row>
     <row r="23" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="33"/>
-      <c r="AR23" s="33"/>
-      <c r="AS23" s="33"/>
-      <c r="AT23" s="33"/>
-      <c r="AU23" s="33"/>
-      <c r="AV23" s="33"/>
-      <c r="AW23" s="33"/>
-      <c r="AX23" s="33"/>
-      <c r="AY23" s="33"/>
-      <c r="AZ23" s="33"/>
-      <c r="BA23" s="33"/>
-      <c r="BB23" s="33"/>
-      <c r="BC23" s="33"/>
-      <c r="BD23" s="34"/>
-      <c r="BE23" s="34"/>
-      <c r="BF23" s="34"/>
-      <c r="BG23" s="34"/>
-      <c r="BH23" s="34"/>
-      <c r="BI23" s="34"/>
-      <c r="BJ23" s="34"/>
-      <c r="BK23" s="34"/>
-      <c r="BL23" s="34"/>
-      <c r="BM23" s="34"/>
-      <c r="BN23" s="34"/>
-      <c r="BO23" s="34"/>
-      <c r="BP23" s="34"/>
-      <c r="BQ23" s="34"/>
-      <c r="BR23" s="34"/>
-      <c r="BS23" s="34"/>
-      <c r="BT23" s="34"/>
-      <c r="BU23" s="34"/>
-      <c r="BV23" s="34"/>
-      <c r="BW23" s="34"/>
-      <c r="BX23" s="34"/>
-      <c r="BY23" s="34"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="19"/>
+      <c r="BB23" s="19"/>
+      <c r="BC23" s="19"/>
+      <c r="BD23" s="20"/>
+      <c r="BE23" s="20"/>
+      <c r="BF23" s="20"/>
+      <c r="BG23" s="20"/>
+      <c r="BH23" s="20"/>
+      <c r="BI23" s="20"/>
+      <c r="BJ23" s="20"/>
+      <c r="BK23" s="20"/>
+      <c r="BL23" s="20"/>
+      <c r="BM23" s="20"/>
+      <c r="BN23" s="20"/>
+      <c r="BO23" s="20"/>
+      <c r="BP23" s="20"/>
+      <c r="BQ23" s="20"/>
+      <c r="BR23" s="20"/>
+      <c r="BS23" s="20"/>
+      <c r="BT23" s="20"/>
+      <c r="BU23" s="20"/>
+      <c r="BV23" s="20"/>
+      <c r="BW23" s="20"/>
+      <c r="BX23" s="20"/>
+      <c r="BY23" s="20"/>
     </row>
     <row r="24" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="33"/>
-      <c r="AP24" s="33"/>
-      <c r="AQ24" s="33"/>
-      <c r="AR24" s="33"/>
-      <c r="AS24" s="33"/>
-      <c r="AT24" s="33"/>
-      <c r="AU24" s="33"/>
-      <c r="AV24" s="33"/>
-      <c r="AW24" s="33"/>
-      <c r="AX24" s="33"/>
-      <c r="AY24" s="33"/>
-      <c r="AZ24" s="33"/>
-      <c r="BA24" s="33"/>
-      <c r="BB24" s="33"/>
-      <c r="BC24" s="33"/>
-      <c r="BD24" s="34"/>
-      <c r="BE24" s="34"/>
-      <c r="BF24" s="34"/>
-      <c r="BG24" s="34"/>
-      <c r="BH24" s="34"/>
-      <c r="BI24" s="34"/>
-      <c r="BJ24" s="34"/>
-      <c r="BK24" s="34"/>
-      <c r="BL24" s="34"/>
-      <c r="BM24" s="34"/>
-      <c r="BN24" s="34"/>
-      <c r="BO24" s="34"/>
-      <c r="BP24" s="34"/>
-      <c r="BQ24" s="34"/>
-      <c r="BR24" s="34"/>
-      <c r="BS24" s="34"/>
-      <c r="BT24" s="34"/>
-      <c r="BU24" s="34"/>
-      <c r="BV24" s="34"/>
-      <c r="BW24" s="34"/>
-      <c r="BX24" s="34"/>
-      <c r="BY24" s="34"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="20"/>
+      <c r="BH24" s="20"/>
+      <c r="BI24" s="20"/>
+      <c r="BJ24" s="20"/>
+      <c r="BK24" s="20"/>
+      <c r="BL24" s="20"/>
+      <c r="BM24" s="20"/>
+      <c r="BN24" s="20"/>
+      <c r="BO24" s="20"/>
+      <c r="BP24" s="20"/>
+      <c r="BQ24" s="20"/>
+      <c r="BR24" s="20"/>
+      <c r="BS24" s="20"/>
+      <c r="BT24" s="20"/>
+      <c r="BU24" s="20"/>
+      <c r="BV24" s="20"/>
+      <c r="BW24" s="20"/>
+      <c r="BX24" s="20"/>
+      <c r="BY24" s="20"/>
     </row>
     <row r="25" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
-      <c r="AM25" s="37"/>
-      <c r="AN25" s="38"/>
-      <c r="AO25" s="33"/>
-      <c r="AP25" s="33"/>
-      <c r="AQ25" s="33"/>
-      <c r="AR25" s="33"/>
-      <c r="AS25" s="33"/>
-      <c r="AT25" s="33"/>
-      <c r="AU25" s="33"/>
-      <c r="AV25" s="33"/>
-      <c r="AW25" s="33"/>
-      <c r="AX25" s="33"/>
-      <c r="AY25" s="33"/>
-      <c r="AZ25" s="33"/>
-      <c r="BA25" s="33"/>
-      <c r="BB25" s="33"/>
-      <c r="BC25" s="33"/>
-      <c r="BD25" s="34"/>
-      <c r="BE25" s="34"/>
-      <c r="BF25" s="34"/>
-      <c r="BG25" s="34"/>
-      <c r="BH25" s="34"/>
-      <c r="BI25" s="34"/>
-      <c r="BJ25" s="34"/>
-      <c r="BK25" s="34"/>
-      <c r="BL25" s="34"/>
-      <c r="BM25" s="34"/>
-      <c r="BN25" s="34"/>
-      <c r="BO25" s="34"/>
-      <c r="BP25" s="34"/>
-      <c r="BQ25" s="34"/>
-      <c r="BR25" s="34"/>
-      <c r="BS25" s="34"/>
-      <c r="BT25" s="34"/>
-      <c r="BU25" s="34"/>
-      <c r="BV25" s="34"/>
-      <c r="BW25" s="34"/>
-      <c r="BX25" s="34"/>
-      <c r="BY25" s="34"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22"/>
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22"/>
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="19"/>
+      <c r="BB25" s="19"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="20"/>
+      <c r="BE25" s="20"/>
+      <c r="BF25" s="20"/>
+      <c r="BG25" s="20"/>
+      <c r="BH25" s="20"/>
+      <c r="BI25" s="20"/>
+      <c r="BJ25" s="20"/>
+      <c r="BK25" s="20"/>
+      <c r="BL25" s="20"/>
+      <c r="BM25" s="20"/>
+      <c r="BN25" s="20"/>
+      <c r="BO25" s="20"/>
+      <c r="BP25" s="20"/>
+      <c r="BQ25" s="20"/>
+      <c r="BR25" s="20"/>
+      <c r="BS25" s="20"/>
+      <c r="BT25" s="20"/>
+      <c r="BU25" s="20"/>
+      <c r="BV25" s="20"/>
+      <c r="BW25" s="20"/>
+      <c r="BX25" s="20"/>
+      <c r="BY25" s="20"/>
     </row>
     <row r="26" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="33"/>
-      <c r="AP26" s="33"/>
-      <c r="AQ26" s="33"/>
-      <c r="AR26" s="33"/>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="33"/>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="33"/>
-      <c r="AW26" s="33"/>
-      <c r="AX26" s="33"/>
-      <c r="AY26" s="33"/>
-      <c r="AZ26" s="33"/>
-      <c r="BA26" s="33"/>
-      <c r="BB26" s="33"/>
-      <c r="BC26" s="33"/>
-      <c r="BD26" s="34"/>
-      <c r="BE26" s="34"/>
-      <c r="BF26" s="34"/>
-      <c r="BG26" s="34"/>
-      <c r="BH26" s="34"/>
-      <c r="BI26" s="34"/>
-      <c r="BJ26" s="34"/>
-      <c r="BK26" s="34"/>
-      <c r="BL26" s="34"/>
-      <c r="BM26" s="34"/>
-      <c r="BN26" s="34"/>
-      <c r="BO26" s="34"/>
-      <c r="BP26" s="34"/>
-      <c r="BQ26" s="34"/>
-      <c r="BR26" s="34"/>
-      <c r="BS26" s="34"/>
-      <c r="BT26" s="34"/>
-      <c r="BU26" s="34"/>
-      <c r="BV26" s="34"/>
-      <c r="BW26" s="34"/>
-      <c r="BX26" s="34"/>
-      <c r="BY26" s="34"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="20"/>
+      <c r="BE26" s="20"/>
+      <c r="BF26" s="20"/>
+      <c r="BG26" s="20"/>
+      <c r="BH26" s="20"/>
+      <c r="BI26" s="20"/>
+      <c r="BJ26" s="20"/>
+      <c r="BK26" s="20"/>
+      <c r="BL26" s="20"/>
+      <c r="BM26" s="20"/>
+      <c r="BN26" s="20"/>
+      <c r="BO26" s="20"/>
+      <c r="BP26" s="20"/>
+      <c r="BQ26" s="20"/>
+      <c r="BR26" s="20"/>
+      <c r="BS26" s="20"/>
+      <c r="BT26" s="20"/>
+      <c r="BU26" s="20"/>
+      <c r="BV26" s="20"/>
+      <c r="BW26" s="20"/>
+      <c r="BX26" s="20"/>
+      <c r="BY26" s="20"/>
     </row>
     <row r="27" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
-      <c r="AP27" s="33"/>
-      <c r="AQ27" s="33"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="33"/>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="33"/>
-      <c r="AX27" s="33"/>
-      <c r="AY27" s="33"/>
-      <c r="AZ27" s="33"/>
-      <c r="BA27" s="33"/>
-      <c r="BB27" s="33"/>
-      <c r="BC27" s="33"/>
-      <c r="BD27" s="34"/>
-      <c r="BE27" s="34"/>
-      <c r="BF27" s="34"/>
-      <c r="BG27" s="34"/>
-      <c r="BH27" s="34"/>
-      <c r="BI27" s="34"/>
-      <c r="BJ27" s="34"/>
-      <c r="BK27" s="34"/>
-      <c r="BL27" s="34"/>
-      <c r="BM27" s="34"/>
-      <c r="BN27" s="34"/>
-      <c r="BO27" s="34"/>
-      <c r="BP27" s="34"/>
-      <c r="BQ27" s="34"/>
-      <c r="BR27" s="34"/>
-      <c r="BS27" s="34"/>
-      <c r="BT27" s="34"/>
-      <c r="BU27" s="34"/>
-      <c r="BV27" s="34"/>
-      <c r="BW27" s="34"/>
-      <c r="BX27" s="34"/>
-      <c r="BY27" s="34"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="19"/>
+      <c r="BB27" s="19"/>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="20"/>
+      <c r="BE27" s="20"/>
+      <c r="BF27" s="20"/>
+      <c r="BG27" s="20"/>
+      <c r="BH27" s="20"/>
+      <c r="BI27" s="20"/>
+      <c r="BJ27" s="20"/>
+      <c r="BK27" s="20"/>
+      <c r="BL27" s="20"/>
+      <c r="BM27" s="20"/>
+      <c r="BN27" s="20"/>
+      <c r="BO27" s="20"/>
+      <c r="BP27" s="20"/>
+      <c r="BQ27" s="20"/>
+      <c r="BR27" s="20"/>
+      <c r="BS27" s="20"/>
+      <c r="BT27" s="20"/>
+      <c r="BU27" s="20"/>
+      <c r="BV27" s="20"/>
+      <c r="BW27" s="20"/>
+      <c r="BX27" s="20"/>
+      <c r="BY27" s="20"/>
     </row>
     <row r="28" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="33"/>
-      <c r="AQ28" s="33"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="33"/>
-      <c r="AY28" s="33"/>
-      <c r="AZ28" s="33"/>
-      <c r="BA28" s="33"/>
-      <c r="BB28" s="33"/>
-      <c r="BC28" s="33"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="34"/>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="34"/>
-      <c r="BJ28" s="34"/>
-      <c r="BK28" s="34"/>
-      <c r="BL28" s="34"/>
-      <c r="BM28" s="34"/>
-      <c r="BN28" s="34"/>
-      <c r="BO28" s="34"/>
-      <c r="BP28" s="34"/>
-      <c r="BQ28" s="34"/>
-      <c r="BR28" s="34"/>
-      <c r="BS28" s="34"/>
-      <c r="BT28" s="34"/>
-      <c r="BU28" s="34"/>
-      <c r="BV28" s="34"/>
-      <c r="BW28" s="34"/>
-      <c r="BX28" s="34"/>
-      <c r="BY28" s="34"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="20"/>
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="20"/>
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="20"/>
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="20"/>
+      <c r="BR28" s="20"/>
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="20"/>
+      <c r="BU28" s="20"/>
+      <c r="BV28" s="20"/>
+      <c r="BW28" s="20"/>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="20"/>
     </row>
     <row r="29" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="33"/>
-      <c r="AM29" s="33"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="33"/>
-      <c r="AP29" s="33"/>
-      <c r="AQ29" s="33"/>
-      <c r="AR29" s="33"/>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="33"/>
-      <c r="AX29" s="33"/>
-      <c r="AY29" s="33"/>
-      <c r="AZ29" s="33"/>
-      <c r="BA29" s="33"/>
-      <c r="BB29" s="33"/>
-      <c r="BC29" s="33"/>
-      <c r="BD29" s="34"/>
-      <c r="BE29" s="34"/>
-      <c r="BF29" s="34"/>
-      <c r="BG29" s="34"/>
-      <c r="BH29" s="34"/>
-      <c r="BI29" s="34"/>
-      <c r="BJ29" s="34"/>
-      <c r="BK29" s="34"/>
-      <c r="BL29" s="34"/>
-      <c r="BM29" s="34"/>
-      <c r="BN29" s="34"/>
-      <c r="BO29" s="34"/>
-      <c r="BP29" s="34"/>
-      <c r="BQ29" s="34"/>
-      <c r="BR29" s="34"/>
-      <c r="BS29" s="34"/>
-      <c r="BT29" s="34"/>
-      <c r="BU29" s="34"/>
-      <c r="BV29" s="34"/>
-      <c r="BW29" s="34"/>
-      <c r="BX29" s="34"/>
-      <c r="BY29" s="34"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="19"/>
+      <c r="AU29" s="19"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="19"/>
+      <c r="BA29" s="19"/>
+      <c r="BB29" s="19"/>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="20"/>
+      <c r="BE29" s="20"/>
+      <c r="BF29" s="20"/>
+      <c r="BG29" s="20"/>
+      <c r="BH29" s="20"/>
+      <c r="BI29" s="20"/>
+      <c r="BJ29" s="20"/>
+      <c r="BK29" s="20"/>
+      <c r="BL29" s="20"/>
+      <c r="BM29" s="20"/>
+      <c r="BN29" s="20"/>
+      <c r="BO29" s="20"/>
+      <c r="BP29" s="20"/>
+      <c r="BQ29" s="20"/>
+      <c r="BR29" s="20"/>
+      <c r="BS29" s="20"/>
+      <c r="BT29" s="20"/>
+      <c r="BU29" s="20"/>
+      <c r="BV29" s="20"/>
+      <c r="BW29" s="20"/>
+      <c r="BX29" s="20"/>
+      <c r="BY29" s="20"/>
     </row>
     <row r="30" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="33"/>
-      <c r="AQ30" s="33"/>
-      <c r="AR30" s="33"/>
-      <c r="AS30" s="33"/>
-      <c r="AT30" s="33"/>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="33"/>
-      <c r="AX30" s="33"/>
-      <c r="AY30" s="33"/>
-      <c r="AZ30" s="33"/>
-      <c r="BA30" s="33"/>
-      <c r="BB30" s="33"/>
-      <c r="BC30" s="33"/>
-      <c r="BD30" s="34"/>
-      <c r="BE30" s="34"/>
-      <c r="BF30" s="34"/>
-      <c r="BG30" s="34"/>
-      <c r="BH30" s="34"/>
-      <c r="BI30" s="34"/>
-      <c r="BJ30" s="34"/>
-      <c r="BK30" s="34"/>
-      <c r="BL30" s="34"/>
-      <c r="BM30" s="34"/>
-      <c r="BN30" s="34"/>
-      <c r="BO30" s="34"/>
-      <c r="BP30" s="34"/>
-      <c r="BQ30" s="34"/>
-      <c r="BR30" s="34"/>
-      <c r="BS30" s="34"/>
-      <c r="BT30" s="34"/>
-      <c r="BU30" s="34"/>
-      <c r="BV30" s="34"/>
-      <c r="BW30" s="34"/>
-      <c r="BX30" s="34"/>
-      <c r="BY30" s="34"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="19"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="19"/>
+      <c r="AU30" s="19"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="19"/>
+      <c r="AZ30" s="19"/>
+      <c r="BA30" s="19"/>
+      <c r="BB30" s="19"/>
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="20"/>
+      <c r="BE30" s="20"/>
+      <c r="BF30" s="20"/>
+      <c r="BG30" s="20"/>
+      <c r="BH30" s="20"/>
+      <c r="BI30" s="20"/>
+      <c r="BJ30" s="20"/>
+      <c r="BK30" s="20"/>
+      <c r="BL30" s="20"/>
+      <c r="BM30" s="20"/>
+      <c r="BN30" s="20"/>
+      <c r="BO30" s="20"/>
+      <c r="BP30" s="20"/>
+      <c r="BQ30" s="20"/>
+      <c r="BR30" s="20"/>
+      <c r="BS30" s="20"/>
+      <c r="BT30" s="20"/>
+      <c r="BU30" s="20"/>
+      <c r="BV30" s="20"/>
+      <c r="BW30" s="20"/>
+      <c r="BX30" s="20"/>
+      <c r="BY30" s="20"/>
     </row>
     <row r="31" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="36"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="33"/>
-      <c r="AP31" s="33"/>
-      <c r="AQ31" s="33"/>
-      <c r="AR31" s="33"/>
-      <c r="AS31" s="33"/>
-      <c r="AT31" s="33"/>
-      <c r="AU31" s="33"/>
-      <c r="AV31" s="33"/>
-      <c r="AW31" s="33"/>
-      <c r="AX31" s="33"/>
-      <c r="AY31" s="33"/>
-      <c r="AZ31" s="33"/>
-      <c r="BA31" s="33"/>
-      <c r="BB31" s="33"/>
-      <c r="BC31" s="33"/>
-      <c r="BD31" s="34"/>
-      <c r="BE31" s="34"/>
-      <c r="BF31" s="34"/>
-      <c r="BG31" s="34"/>
-      <c r="BH31" s="34"/>
-      <c r="BI31" s="34"/>
-      <c r="BJ31" s="34"/>
-      <c r="BK31" s="34"/>
-      <c r="BL31" s="34"/>
-      <c r="BM31" s="34"/>
-      <c r="BN31" s="34"/>
-      <c r="BO31" s="34"/>
-      <c r="BP31" s="34"/>
-      <c r="BQ31" s="34"/>
-      <c r="BR31" s="34"/>
-      <c r="BS31" s="34"/>
-      <c r="BT31" s="34"/>
-      <c r="BU31" s="34"/>
-      <c r="BV31" s="34"/>
-      <c r="BW31" s="34"/>
-      <c r="BX31" s="34"/>
-      <c r="BY31" s="34"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="19"/>
+      <c r="BA31" s="19"/>
+      <c r="BB31" s="19"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="20"/>
+      <c r="BE31" s="20"/>
+      <c r="BF31" s="20"/>
+      <c r="BG31" s="20"/>
+      <c r="BH31" s="20"/>
+      <c r="BI31" s="20"/>
+      <c r="BJ31" s="20"/>
+      <c r="BK31" s="20"/>
+      <c r="BL31" s="20"/>
+      <c r="BM31" s="20"/>
+      <c r="BN31" s="20"/>
+      <c r="BO31" s="20"/>
+      <c r="BP31" s="20"/>
+      <c r="BQ31" s="20"/>
+      <c r="BR31" s="20"/>
+      <c r="BS31" s="20"/>
+      <c r="BT31" s="20"/>
+      <c r="BU31" s="20"/>
+      <c r="BV31" s="20"/>
+      <c r="BW31" s="20"/>
+      <c r="BX31" s="20"/>
+      <c r="BY31" s="20"/>
     </row>
     <row r="32" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="33"/>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="33"/>
-      <c r="AS32" s="33"/>
-      <c r="AT32" s="33"/>
-      <c r="AU32" s="33"/>
-      <c r="AV32" s="33"/>
-      <c r="AW32" s="33"/>
-      <c r="AX32" s="33"/>
-      <c r="AY32" s="33"/>
-      <c r="AZ32" s="33"/>
-      <c r="BA32" s="33"/>
-      <c r="BB32" s="33"/>
-      <c r="BC32" s="33"/>
-      <c r="BD32" s="34"/>
-      <c r="BE32" s="34"/>
-      <c r="BF32" s="34"/>
-      <c r="BG32" s="34"/>
-      <c r="BH32" s="34"/>
-      <c r="BI32" s="34"/>
-      <c r="BJ32" s="34"/>
-      <c r="BK32" s="34"/>
-      <c r="BL32" s="34"/>
-      <c r="BM32" s="34"/>
-      <c r="BN32" s="34"/>
-      <c r="BO32" s="34"/>
-      <c r="BP32" s="34"/>
-      <c r="BQ32" s="34"/>
-      <c r="BR32" s="34"/>
-      <c r="BS32" s="34"/>
-      <c r="BT32" s="34"/>
-      <c r="BU32" s="34"/>
-      <c r="BV32" s="34"/>
-      <c r="BW32" s="34"/>
-      <c r="BX32" s="34"/>
-      <c r="BY32" s="34"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="19"/>
+      <c r="AU32" s="19"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19"/>
+      <c r="BA32" s="19"/>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="20"/>
+      <c r="BE32" s="20"/>
+      <c r="BF32" s="20"/>
+      <c r="BG32" s="20"/>
+      <c r="BH32" s="20"/>
+      <c r="BI32" s="20"/>
+      <c r="BJ32" s="20"/>
+      <c r="BK32" s="20"/>
+      <c r="BL32" s="20"/>
+      <c r="BM32" s="20"/>
+      <c r="BN32" s="20"/>
+      <c r="BO32" s="20"/>
+      <c r="BP32" s="20"/>
+      <c r="BQ32" s="20"/>
+      <c r="BR32" s="20"/>
+      <c r="BS32" s="20"/>
+      <c r="BT32" s="20"/>
+      <c r="BU32" s="20"/>
+      <c r="BV32" s="20"/>
+      <c r="BW32" s="20"/>
+      <c r="BX32" s="20"/>
+      <c r="BY32" s="20"/>
     </row>
     <row r="33" spans="2:77" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="33"/>
-      <c r="AJ33" s="33"/>
-      <c r="AK33" s="33"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="33"/>
-      <c r="AN33" s="33"/>
-      <c r="AO33" s="33"/>
-      <c r="AP33" s="33"/>
-      <c r="AQ33" s="33"/>
-      <c r="AR33" s="33"/>
-      <c r="AS33" s="33"/>
-      <c r="AT33" s="33"/>
-      <c r="AU33" s="33"/>
-      <c r="AV33" s="33"/>
-      <c r="AW33" s="33"/>
-      <c r="AX33" s="33"/>
-      <c r="AY33" s="33"/>
-      <c r="AZ33" s="33"/>
-      <c r="BA33" s="33"/>
-      <c r="BB33" s="33"/>
-      <c r="BC33" s="33"/>
-      <c r="BD33" s="34"/>
-      <c r="BE33" s="34"/>
-      <c r="BF33" s="34"/>
-      <c r="BG33" s="34"/>
-      <c r="BH33" s="34"/>
-      <c r="BI33" s="34"/>
-      <c r="BJ33" s="34"/>
-      <c r="BK33" s="34"/>
-      <c r="BL33" s="34"/>
-      <c r="BM33" s="34"/>
-      <c r="BN33" s="34"/>
-      <c r="BO33" s="34"/>
-      <c r="BP33" s="34"/>
-      <c r="BQ33" s="34"/>
-      <c r="BR33" s="34"/>
-      <c r="BS33" s="34"/>
-      <c r="BT33" s="34"/>
-      <c r="BU33" s="34"/>
-      <c r="BV33" s="34"/>
-      <c r="BW33" s="34"/>
-      <c r="BX33" s="34"/>
-      <c r="BY33" s="34"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="19"/>
+      <c r="AU33" s="19"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="19"/>
+      <c r="AZ33" s="19"/>
+      <c r="BA33" s="19"/>
+      <c r="BB33" s="19"/>
+      <c r="BC33" s="19"/>
+      <c r="BD33" s="20"/>
+      <c r="BE33" s="20"/>
+      <c r="BF33" s="20"/>
+      <c r="BG33" s="20"/>
+      <c r="BH33" s="20"/>
+      <c r="BI33" s="20"/>
+      <c r="BJ33" s="20"/>
+      <c r="BK33" s="20"/>
+      <c r="BL33" s="20"/>
+      <c r="BM33" s="20"/>
+      <c r="BN33" s="20"/>
+      <c r="BO33" s="20"/>
+      <c r="BP33" s="20"/>
+      <c r="BQ33" s="20"/>
+      <c r="BR33" s="20"/>
+      <c r="BS33" s="20"/>
+      <c r="BT33" s="20"/>
+      <c r="BU33" s="20"/>
+      <c r="BV33" s="20"/>
+      <c r="BW33" s="20"/>
+      <c r="BX33" s="20"/>
+      <c r="BY33" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="AW32:BC32"/>
-    <mergeCell ref="BD32:BY32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:P33"/>
-    <mergeCell ref="Q33:AB33"/>
-    <mergeCell ref="AC33:AN33"/>
-    <mergeCell ref="AO33:AR33"/>
-    <mergeCell ref="AS33:AV33"/>
-    <mergeCell ref="AW33:BC33"/>
-    <mergeCell ref="BD33:BY33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:P32"/>
-    <mergeCell ref="Q32:AB32"/>
-    <mergeCell ref="AC32:AN32"/>
-    <mergeCell ref="AO32:AR32"/>
-    <mergeCell ref="AS32:AV32"/>
-    <mergeCell ref="AW30:BC30"/>
-    <mergeCell ref="BD30:BY30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:P31"/>
-    <mergeCell ref="Q31:AB31"/>
-    <mergeCell ref="AC31:AN31"/>
-    <mergeCell ref="AO31:AR31"/>
-    <mergeCell ref="AS31:AV31"/>
-    <mergeCell ref="AW31:BC31"/>
-    <mergeCell ref="BD31:BY31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:P30"/>
-    <mergeCell ref="Q30:AB30"/>
-    <mergeCell ref="AC30:AN30"/>
-    <mergeCell ref="AO30:AR30"/>
-    <mergeCell ref="AS30:AV30"/>
-    <mergeCell ref="AW28:BC28"/>
-    <mergeCell ref="BD28:BY28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:P29"/>
-    <mergeCell ref="Q29:AB29"/>
-    <mergeCell ref="AC29:AN29"/>
-    <mergeCell ref="AO29:AR29"/>
-    <mergeCell ref="AS29:AV29"/>
-    <mergeCell ref="AW29:BC29"/>
-    <mergeCell ref="BD29:BY29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="Q28:AB28"/>
-    <mergeCell ref="AC28:AN28"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AS28:AV28"/>
-    <mergeCell ref="AW26:BC26"/>
-    <mergeCell ref="BD26:BY26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:P27"/>
-    <mergeCell ref="Q27:AB27"/>
-    <mergeCell ref="AC27:AN27"/>
-    <mergeCell ref="AO27:AR27"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="AW27:BC27"/>
-    <mergeCell ref="BD27:BY27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:P26"/>
-    <mergeCell ref="Q26:AB26"/>
-    <mergeCell ref="AC26:AN26"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AS26:AV26"/>
-    <mergeCell ref="AW24:BC24"/>
-    <mergeCell ref="BD24:BY24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:P25"/>
-    <mergeCell ref="Q25:AB25"/>
-    <mergeCell ref="AC25:AN25"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AS25:AV25"/>
-    <mergeCell ref="AW25:BC25"/>
-    <mergeCell ref="BD25:BY25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:P24"/>
-    <mergeCell ref="Q24:AB24"/>
-    <mergeCell ref="AC24:AN24"/>
-    <mergeCell ref="AO24:AR24"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="AW22:BC22"/>
-    <mergeCell ref="BD22:BY22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:P23"/>
-    <mergeCell ref="Q23:AB23"/>
-    <mergeCell ref="AC23:AN23"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AS23:AV23"/>
-    <mergeCell ref="AW23:BC23"/>
-    <mergeCell ref="BD23:BY23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:P22"/>
-    <mergeCell ref="Q22:AB22"/>
-    <mergeCell ref="AC22:AN22"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AS22:AV22"/>
-    <mergeCell ref="AW20:BC20"/>
-    <mergeCell ref="BD20:BY20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="Q21:AB21"/>
-    <mergeCell ref="AC21:AN21"/>
-    <mergeCell ref="AO21:AR21"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="AW21:BC21"/>
-    <mergeCell ref="BD21:BY21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:P20"/>
-    <mergeCell ref="Q20:AB20"/>
-    <mergeCell ref="AC20:AN20"/>
-    <mergeCell ref="AO20:AR20"/>
-    <mergeCell ref="AS20:AV20"/>
-    <mergeCell ref="AW18:BC18"/>
-    <mergeCell ref="BD18:BY18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:P19"/>
-    <mergeCell ref="Q19:AB19"/>
-    <mergeCell ref="AC19:AN19"/>
-    <mergeCell ref="AO19:AR19"/>
-    <mergeCell ref="AS19:AV19"/>
-    <mergeCell ref="AW19:BC19"/>
-    <mergeCell ref="BD19:BY19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:P18"/>
-    <mergeCell ref="Q18:AB18"/>
-    <mergeCell ref="AC18:AN18"/>
-    <mergeCell ref="AO18:AR18"/>
-    <mergeCell ref="AS18:AV18"/>
-    <mergeCell ref="AW16:BC16"/>
-    <mergeCell ref="BD16:BY16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="Q17:AB17"/>
-    <mergeCell ref="AC17:AN17"/>
-    <mergeCell ref="AO17:AR17"/>
-    <mergeCell ref="AS17:AV17"/>
-    <mergeCell ref="AW17:BC17"/>
-    <mergeCell ref="BD17:BY17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:P16"/>
-    <mergeCell ref="Q16:AB16"/>
-    <mergeCell ref="AC16:AN16"/>
-    <mergeCell ref="AO16:AR16"/>
-    <mergeCell ref="AS16:AV16"/>
-    <mergeCell ref="AW14:BC14"/>
-    <mergeCell ref="BD14:BY14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="Q15:AB15"/>
-    <mergeCell ref="AC15:AN15"/>
-    <mergeCell ref="AO15:AR15"/>
-    <mergeCell ref="AS15:AV15"/>
-    <mergeCell ref="AW15:BC15"/>
-    <mergeCell ref="BD15:BY15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:P14"/>
-    <mergeCell ref="Q14:AB14"/>
-    <mergeCell ref="AC14:AN14"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AW12:BC12"/>
-    <mergeCell ref="BD12:BY12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="Q13:AB13"/>
-    <mergeCell ref="AC13:AN13"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="BD13:BY13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:P12"/>
-    <mergeCell ref="Q12:AB12"/>
-    <mergeCell ref="AC12:AN12"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:P10"/>
-    <mergeCell ref="Q10:AB10"/>
-    <mergeCell ref="AC10:AN10"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AW10:BC10"/>
-    <mergeCell ref="BD10:BY10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="Q11:AB11"/>
-    <mergeCell ref="AC11:AN11"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AW11:BC11"/>
-    <mergeCell ref="BD11:BY11"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="K7:AB7"/>
     <mergeCell ref="B9:D9"/>
@@ -4891,6 +4699,198 @@
     <mergeCell ref="AS9:AV9"/>
     <mergeCell ref="AW9:BC9"/>
     <mergeCell ref="BD9:BY9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:P10"/>
+    <mergeCell ref="Q10:AB10"/>
+    <mergeCell ref="AC10:AN10"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AW10:BC10"/>
+    <mergeCell ref="BD10:BY10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="Q11:AB11"/>
+    <mergeCell ref="AC11:AN11"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="AW11:BC11"/>
+    <mergeCell ref="BD11:BY11"/>
+    <mergeCell ref="AW12:BC12"/>
+    <mergeCell ref="BD12:BY12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="Q13:AB13"/>
+    <mergeCell ref="AC13:AN13"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="BD13:BY13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:P12"/>
+    <mergeCell ref="Q12:AB12"/>
+    <mergeCell ref="AC12:AN12"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AW14:BC14"/>
+    <mergeCell ref="BD14:BY14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="Q15:AB15"/>
+    <mergeCell ref="AC15:AN15"/>
+    <mergeCell ref="AO15:AR15"/>
+    <mergeCell ref="AS15:AV15"/>
+    <mergeCell ref="AW15:BC15"/>
+    <mergeCell ref="BD15:BY15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:P14"/>
+    <mergeCell ref="Q14:AB14"/>
+    <mergeCell ref="AC14:AN14"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AW16:BC16"/>
+    <mergeCell ref="BD16:BY16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="Q17:AB17"/>
+    <mergeCell ref="AC17:AN17"/>
+    <mergeCell ref="AO17:AR17"/>
+    <mergeCell ref="AS17:AV17"/>
+    <mergeCell ref="AW17:BC17"/>
+    <mergeCell ref="BD17:BY17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:P16"/>
+    <mergeCell ref="Q16:AB16"/>
+    <mergeCell ref="AC16:AN16"/>
+    <mergeCell ref="AO16:AR16"/>
+    <mergeCell ref="AS16:AV16"/>
+    <mergeCell ref="AW18:BC18"/>
+    <mergeCell ref="BD18:BY18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:P19"/>
+    <mergeCell ref="Q19:AB19"/>
+    <mergeCell ref="AC19:AN19"/>
+    <mergeCell ref="AO19:AR19"/>
+    <mergeCell ref="AS19:AV19"/>
+    <mergeCell ref="AW19:BC19"/>
+    <mergeCell ref="BD19:BY19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:P18"/>
+    <mergeCell ref="Q18:AB18"/>
+    <mergeCell ref="AC18:AN18"/>
+    <mergeCell ref="AO18:AR18"/>
+    <mergeCell ref="AS18:AV18"/>
+    <mergeCell ref="AW20:BC20"/>
+    <mergeCell ref="BD20:BY20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="Q21:AB21"/>
+    <mergeCell ref="AC21:AN21"/>
+    <mergeCell ref="AO21:AR21"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="AW21:BC21"/>
+    <mergeCell ref="BD21:BY21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:P20"/>
+    <mergeCell ref="Q20:AB20"/>
+    <mergeCell ref="AC20:AN20"/>
+    <mergeCell ref="AO20:AR20"/>
+    <mergeCell ref="AS20:AV20"/>
+    <mergeCell ref="AW22:BC22"/>
+    <mergeCell ref="BD22:BY22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:P23"/>
+    <mergeCell ref="Q23:AB23"/>
+    <mergeCell ref="AC23:AN23"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AS23:AV23"/>
+    <mergeCell ref="AW23:BC23"/>
+    <mergeCell ref="BD23:BY23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:P22"/>
+    <mergeCell ref="Q22:AB22"/>
+    <mergeCell ref="AC22:AN22"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AS22:AV22"/>
+    <mergeCell ref="AW24:BC24"/>
+    <mergeCell ref="BD24:BY24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:P25"/>
+    <mergeCell ref="Q25:AB25"/>
+    <mergeCell ref="AC25:AN25"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AS25:AV25"/>
+    <mergeCell ref="AW25:BC25"/>
+    <mergeCell ref="BD25:BY25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="Q24:AB24"/>
+    <mergeCell ref="AC24:AN24"/>
+    <mergeCell ref="AO24:AR24"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="AW26:BC26"/>
+    <mergeCell ref="BD26:BY26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:P27"/>
+    <mergeCell ref="Q27:AB27"/>
+    <mergeCell ref="AC27:AN27"/>
+    <mergeCell ref="AO27:AR27"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="AW27:BC27"/>
+    <mergeCell ref="BD27:BY27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:P26"/>
+    <mergeCell ref="Q26:AB26"/>
+    <mergeCell ref="AC26:AN26"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AS26:AV26"/>
+    <mergeCell ref="AW28:BC28"/>
+    <mergeCell ref="BD28:BY28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:P29"/>
+    <mergeCell ref="Q29:AB29"/>
+    <mergeCell ref="AC29:AN29"/>
+    <mergeCell ref="AO29:AR29"/>
+    <mergeCell ref="AS29:AV29"/>
+    <mergeCell ref="AW29:BC29"/>
+    <mergeCell ref="BD29:BY29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="Q28:AB28"/>
+    <mergeCell ref="AC28:AN28"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AS28:AV28"/>
+    <mergeCell ref="AW30:BC30"/>
+    <mergeCell ref="BD30:BY30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:P31"/>
+    <mergeCell ref="Q31:AB31"/>
+    <mergeCell ref="AC31:AN31"/>
+    <mergeCell ref="AO31:AR31"/>
+    <mergeCell ref="AS31:AV31"/>
+    <mergeCell ref="AW31:BC31"/>
+    <mergeCell ref="BD31:BY31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:P30"/>
+    <mergeCell ref="Q30:AB30"/>
+    <mergeCell ref="AC30:AN30"/>
+    <mergeCell ref="AO30:AR30"/>
+    <mergeCell ref="AS30:AV30"/>
+    <mergeCell ref="AW32:BC32"/>
+    <mergeCell ref="BD32:BY32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:P33"/>
+    <mergeCell ref="Q33:AB33"/>
+    <mergeCell ref="AC33:AN33"/>
+    <mergeCell ref="AO33:AR33"/>
+    <mergeCell ref="AS33:AV33"/>
+    <mergeCell ref="AW33:BC33"/>
+    <mergeCell ref="BD33:BY33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:P32"/>
+    <mergeCell ref="Q32:AB32"/>
+    <mergeCell ref="AC32:AN32"/>
+    <mergeCell ref="AO32:AR32"/>
+    <mergeCell ref="AS32:AV32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5039,189 +5039,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="str">
+      <c r="A1" s="35" t="str">
         <f>[1]改版履歴!A1</f>
         <v>技術者経歴書管理システム</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="23" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="24" t="str">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="30" t="str">
         <f>[1]改版履歴!AC1</f>
         <v>001</v>
       </c>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="23" t="s">
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="22" t="s">
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="23" t="s">
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="22">
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="28">
         <v>42548</v>
       </c>
-      <c r="BR1" s="22"/>
-      <c r="BS1" s="22"/>
-      <c r="BT1" s="22"/>
-      <c r="BU1" s="22"/>
-      <c r="BV1" s="22"/>
-      <c r="BW1" s="22"/>
-      <c r="BX1" s="22"/>
-      <c r="BY1" s="22"/>
-      <c r="BZ1" s="22"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
     </row>
     <row r="2" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="23" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="24" t="str">
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="30" t="str">
         <f>[1]改版履歴!AC2</f>
         <v>テーブル設計書</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="23" t="s">
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="23" t="s">
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="23"/>
-      <c r="BO2" s="23"/>
-      <c r="BP2" s="23"/>
-      <c r="BQ2" s="22"/>
-      <c r="BR2" s="22"/>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="22"/>
-      <c r="BU2" s="22"/>
-      <c r="BV2" s="22"/>
-      <c r="BW2" s="22"/>
-      <c r="BX2" s="22"/>
-      <c r="BY2" s="22"/>
-      <c r="BZ2" s="22"/>
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="28"/>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
     </row>
     <row r="3" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
@@ -5529,21 +5529,21 @@
     </row>
     <row r="6" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="41"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="10"/>
@@ -5651,21 +5651,21 @@
     </row>
     <row r="7" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="44"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="10"/>
@@ -5773,21 +5773,21 @@
     </row>
     <row r="8" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="10"/>
@@ -5896,21 +5896,21 @@
     </row>
     <row r="9" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="10"/>
@@ -5994,21 +5994,21 @@
     </row>
     <row r="10" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="10"/>
@@ -6092,21 +6092,21 @@
     </row>
     <row r="11" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="10"/>
@@ -6190,21 +6190,21 @@
     </row>
     <row r="12" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="41"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="10"/>
@@ -6271,21 +6271,21 @@
     </row>
     <row r="13" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="10"/>
@@ -6365,21 +6365,21 @@
     </row>
     <row r="14" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="10"/>
@@ -6463,21 +6463,21 @@
     </row>
     <row r="15" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="47"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="41"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="10"/>
@@ -6548,21 +6548,21 @@
     </row>
     <row r="16" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="47"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="10"/>
@@ -11542,17 +11542,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B14:N14"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="B11:N11"/>
-    <mergeCell ref="B8:N8"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="A1:W2"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BB1:BK1"/>
     <mergeCell ref="BQ1:BZ1"/>
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AC2:AV2"/>
@@ -11561,11 +11555,17 @@
     <mergeCell ref="BL2:BP2"/>
     <mergeCell ref="BQ2:BZ2"/>
     <mergeCell ref="BL1:BP1"/>
-    <mergeCell ref="A1:W2"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BB1:BK1"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B14:N14"/>
+    <mergeCell ref="B15:N15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11576,8 +11576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO14" sqref="AO14:AR14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11713,189 +11713,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="str">
+      <c r="A1" s="35" t="str">
         <f>[1]改版履歴!A1</f>
         <v>技術者経歴書管理システム</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="23" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="24" t="str">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="30" t="str">
         <f>[1]改版履歴!AC1</f>
         <v>001</v>
       </c>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="23" t="s">
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="22" t="s">
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="23" t="s">
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="22">
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="28">
         <v>42548</v>
       </c>
-      <c r="BR1" s="22"/>
-      <c r="BS1" s="22"/>
-      <c r="BT1" s="22"/>
-      <c r="BU1" s="22"/>
-      <c r="BV1" s="22"/>
-      <c r="BW1" s="22"/>
-      <c r="BX1" s="22"/>
-      <c r="BY1" s="22"/>
-      <c r="BZ1" s="22"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
     </row>
     <row r="2" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="23" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="24" t="str">
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="30" t="str">
         <f>[1]改版履歴!AC2</f>
         <v>テーブル設計書</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="23" t="s">
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="23" t="s">
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="23"/>
-      <c r="BO2" s="23"/>
-      <c r="BP2" s="23"/>
-      <c r="BQ2" s="22"/>
-      <c r="BR2" s="22"/>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="22"/>
-      <c r="BU2" s="22"/>
-      <c r="BV2" s="22"/>
-      <c r="BW2" s="22"/>
-      <c r="BX2" s="22"/>
-      <c r="BY2" s="22"/>
-      <c r="BZ2" s="22"/>
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="28"/>
+      <c r="BR2" s="28"/>
+      <c r="BS2" s="28"/>
+      <c r="BT2" s="28"/>
+      <c r="BU2" s="28"/>
+      <c r="BV2" s="28"/>
+      <c r="BW2" s="28"/>
+      <c r="BX2" s="28"/>
+      <c r="BY2" s="28"/>
+      <c r="BZ2" s="28"/>
     </row>
     <row r="3" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
@@ -12355,37 +12355,37 @@
     </row>
     <row r="7" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
@@ -12607,98 +12607,98 @@
     </row>
     <row r="9" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21" t="s">
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21" t="s">
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21" t="s">
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21" t="s">
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21"/>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21" t="s">
+      <c r="AX9" s="27"/>
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="27"/>
+      <c r="BC9" s="27"/>
+      <c r="BD9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21"/>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21"/>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21"/>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21"/>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
+      <c r="BE9" s="27"/>
+      <c r="BF9" s="27"/>
+      <c r="BG9" s="27"/>
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="27"/>
+      <c r="BJ9" s="27"/>
+      <c r="BK9" s="27"/>
+      <c r="BL9" s="27"/>
+      <c r="BM9" s="27"/>
+      <c r="BN9" s="27"/>
+      <c r="BO9" s="27"/>
+      <c r="BP9" s="27"/>
+      <c r="BQ9" s="27"/>
+      <c r="BR9" s="27"/>
+      <c r="BS9" s="27"/>
+      <c r="BT9" s="27"/>
+      <c r="BU9" s="27"/>
+      <c r="BV9" s="27"/>
+      <c r="BW9" s="27"/>
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="27"/>
       <c r="BZ9" s="7"/>
       <c r="CA9" s="7"/>
       <c r="CB9" s="7"/>
@@ -12747,96 +12747,96 @@
     </row>
     <row r="10" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="33">
+      <c r="B10" s="19">
         <v>1</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33" t="s">
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="33" t="s">
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="33" t="s">
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AT10" s="33"/>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="33"/>
-      <c r="AW10" s="33"/>
-      <c r="AX10" s="33"/>
-      <c r="AY10" s="33"/>
-      <c r="AZ10" s="33"/>
-      <c r="BA10" s="33"/>
-      <c r="BB10" s="33"/>
-      <c r="BC10" s="33"/>
-      <c r="BD10" s="34" t="s">
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-      <c r="BI10" s="34"/>
-      <c r="BJ10" s="34"/>
-      <c r="BK10" s="34"/>
-      <c r="BL10" s="34"/>
-      <c r="BM10" s="34"/>
-      <c r="BN10" s="34"/>
-      <c r="BO10" s="34"/>
-      <c r="BP10" s="34"/>
-      <c r="BQ10" s="34"/>
-      <c r="BR10" s="34"/>
-      <c r="BS10" s="34"/>
-      <c r="BT10" s="34"/>
-      <c r="BU10" s="34"/>
-      <c r="BV10" s="34"/>
-      <c r="BW10" s="34"/>
-      <c r="BX10" s="34"/>
-      <c r="BY10" s="34"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="20"/>
+      <c r="BQ10" s="20"/>
+      <c r="BR10" s="20"/>
+      <c r="BS10" s="20"/>
+      <c r="BT10" s="20"/>
+      <c r="BU10" s="20"/>
+      <c r="BV10" s="20"/>
+      <c r="BW10" s="20"/>
+      <c r="BX10" s="20"/>
+      <c r="BY10" s="20"/>
       <c r="BZ10" s="7"/>
       <c r="CA10" s="7"/>
       <c r="CB10" s="7"/>
@@ -12885,92 +12885,92 @@
     </row>
     <row r="11" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
-      <c r="B11" s="33">
+      <c r="B11" s="19">
         <v>2</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33" t="s">
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="33"/>
-      <c r="AS11" s="33" t="s">
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="33"/>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="33"/>
-      <c r="BA11" s="33"/>
-      <c r="BB11" s="33"/>
-      <c r="BC11" s="33"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="34"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="34"/>
-      <c r="BP11" s="34"/>
-      <c r="BQ11" s="34"/>
-      <c r="BR11" s="34"/>
-      <c r="BS11" s="34"/>
-      <c r="BT11" s="34"/>
-      <c r="BU11" s="34"/>
-      <c r="BV11" s="34"/>
-      <c r="BW11" s="34"/>
-      <c r="BX11" s="34"/>
-      <c r="BY11" s="34"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" s="19"/>
+      <c r="BB11" s="19"/>
+      <c r="BC11" s="19"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20"/>
+      <c r="BN11" s="20"/>
+      <c r="BO11" s="20"/>
+      <c r="BP11" s="20"/>
+      <c r="BQ11" s="20"/>
+      <c r="BR11" s="20"/>
+      <c r="BS11" s="20"/>
+      <c r="BT11" s="20"/>
+      <c r="BU11" s="20"/>
+      <c r="BV11" s="20"/>
+      <c r="BW11" s="20"/>
+      <c r="BX11" s="20"/>
+      <c r="BY11" s="20"/>
       <c r="BZ11" s="7"/>
       <c r="CA11" s="7"/>
       <c r="CB11" s="7"/>
@@ -13019,94 +13019,94 @@
     </row>
     <row r="12" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
-      <c r="B12" s="33">
+      <c r="B12" s="19">
         <v>3</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33" t="s">
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33" t="s">
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="33"/>
-      <c r="BB12" s="33"/>
-      <c r="BC12" s="33"/>
-      <c r="BD12" s="34" t="s">
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="BE12" s="34"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="34"/>
-      <c r="BI12" s="34"/>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="34"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="34"/>
-      <c r="BN12" s="34"/>
-      <c r="BO12" s="34"/>
-      <c r="BP12" s="34"/>
-      <c r="BQ12" s="34"/>
-      <c r="BR12" s="34"/>
-      <c r="BS12" s="34"/>
-      <c r="BT12" s="34"/>
-      <c r="BU12" s="34"/>
-      <c r="BV12" s="34"/>
-      <c r="BW12" s="34"/>
-      <c r="BX12" s="34"/>
-      <c r="BY12" s="34"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BM12" s="20"/>
+      <c r="BN12" s="20"/>
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="20"/>
+      <c r="BQ12" s="20"/>
+      <c r="BR12" s="20"/>
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="20"/>
+      <c r="BU12" s="20"/>
+      <c r="BV12" s="20"/>
+      <c r="BW12" s="20"/>
+      <c r="BX12" s="20"/>
+      <c r="BY12" s="20"/>
       <c r="BZ12" s="7"/>
       <c r="CA12" s="7"/>
       <c r="CB12" s="7"/>
@@ -13155,92 +13155,92 @@
     </row>
     <row r="13" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="B13" s="33">
+      <c r="B13" s="19">
         <v>4</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33" t="s">
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="33" t="s">
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="33"/>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="33"/>
-      <c r="BD13" s="34"/>
-      <c r="BE13" s="34"/>
-      <c r="BF13" s="34"/>
-      <c r="BG13" s="34"/>
-      <c r="BH13" s="34"/>
-      <c r="BI13" s="34"/>
-      <c r="BJ13" s="34"/>
-      <c r="BK13" s="34"/>
-      <c r="BL13" s="34"/>
-      <c r="BM13" s="34"/>
-      <c r="BN13" s="34"/>
-      <c r="BO13" s="34"/>
-      <c r="BP13" s="34"/>
-      <c r="BQ13" s="34"/>
-      <c r="BR13" s="34"/>
-      <c r="BS13" s="34"/>
-      <c r="BT13" s="34"/>
-      <c r="BU13" s="34"/>
-      <c r="BV13" s="34"/>
-      <c r="BW13" s="34"/>
-      <c r="BX13" s="34"/>
-      <c r="BY13" s="34"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="19"/>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="19"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="20"/>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="20"/>
+      <c r="BR13" s="20"/>
+      <c r="BS13" s="20"/>
+      <c r="BT13" s="20"/>
+      <c r="BU13" s="20"/>
+      <c r="BV13" s="20"/>
+      <c r="BW13" s="20"/>
+      <c r="BX13" s="20"/>
+      <c r="BY13" s="20"/>
       <c r="BZ13" s="7"/>
       <c r="CA13" s="7"/>
       <c r="CB13" s="7"/>
@@ -13289,92 +13289,92 @@
     </row>
     <row r="14" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="33">
+      <c r="B14" s="19">
         <v>5</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33" t="s">
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33" t="s">
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="33"/>
-      <c r="BB14" s="33"/>
-      <c r="BC14" s="33"/>
-      <c r="BD14" s="35"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="34"/>
-      <c r="BN14" s="34"/>
-      <c r="BO14" s="34"/>
-      <c r="BP14" s="34"/>
-      <c r="BQ14" s="34"/>
-      <c r="BR14" s="34"/>
-      <c r="BS14" s="34"/>
-      <c r="BT14" s="34"/>
-      <c r="BU14" s="34"/>
-      <c r="BV14" s="34"/>
-      <c r="BW14" s="34"/>
-      <c r="BX14" s="34"/>
-      <c r="BY14" s="34"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="19"/>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="19"/>
+      <c r="BD14" s="24"/>
+      <c r="BE14" s="20"/>
+      <c r="BF14" s="20"/>
+      <c r="BG14" s="20"/>
+      <c r="BH14" s="20"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="20"/>
+      <c r="BO14" s="20"/>
+      <c r="BP14" s="20"/>
+      <c r="BQ14" s="20"/>
+      <c r="BR14" s="20"/>
+      <c r="BS14" s="20"/>
+      <c r="BT14" s="20"/>
+      <c r="BU14" s="20"/>
+      <c r="BV14" s="20"/>
+      <c r="BW14" s="20"/>
+      <c r="BX14" s="20"/>
+      <c r="BY14" s="20"/>
       <c r="BZ14" s="7"/>
       <c r="CA14" s="7"/>
       <c r="CB14" s="7"/>
@@ -13423,94 +13423,94 @@
     </row>
     <row r="15" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
-      <c r="B15" s="33">
+      <c r="B15" s="19">
         <v>6</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33" t="s">
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="33" t="s">
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
-      <c r="AX15" s="33"/>
-      <c r="AY15" s="33"/>
-      <c r="AZ15" s="33"/>
-      <c r="BA15" s="33"/>
-      <c r="BB15" s="33"/>
-      <c r="BC15" s="33"/>
-      <c r="BD15" s="34" t="s">
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="19"/>
+      <c r="BA15" s="19"/>
+      <c r="BB15" s="19"/>
+      <c r="BC15" s="19"/>
+      <c r="BD15" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="34"/>
-      <c r="BI15" s="34"/>
-      <c r="BJ15" s="34"/>
-      <c r="BK15" s="34"/>
-      <c r="BL15" s="34"/>
-      <c r="BM15" s="34"/>
-      <c r="BN15" s="34"/>
-      <c r="BO15" s="34"/>
-      <c r="BP15" s="34"/>
-      <c r="BQ15" s="34"/>
-      <c r="BR15" s="34"/>
-      <c r="BS15" s="34"/>
-      <c r="BT15" s="34"/>
-      <c r="BU15" s="34"/>
-      <c r="BV15" s="34"/>
-      <c r="BW15" s="34"/>
-      <c r="BX15" s="34"/>
-      <c r="BY15" s="34"/>
+      <c r="BE15" s="20"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="20"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
+      <c r="BM15" s="20"/>
+      <c r="BN15" s="20"/>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="20"/>
+      <c r="BQ15" s="20"/>
+      <c r="BR15" s="20"/>
+      <c r="BS15" s="20"/>
+      <c r="BT15" s="20"/>
+      <c r="BU15" s="20"/>
+      <c r="BV15" s="20"/>
+      <c r="BW15" s="20"/>
+      <c r="BX15" s="20"/>
+      <c r="BY15" s="20"/>
       <c r="BZ15" s="7"/>
       <c r="CA15" s="7"/>
       <c r="CB15" s="7"/>
@@ -13559,92 +13559,92 @@
     </row>
     <row r="16" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
-      <c r="B16" s="33">
+      <c r="B16" s="19">
         <v>7</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33" t="s">
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33" t="s">
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
-      <c r="AX16" s="33"/>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="33"/>
-      <c r="BA16" s="33"/>
-      <c r="BB16" s="33"/>
-      <c r="BC16" s="33"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="34"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="34"/>
-      <c r="BI16" s="34"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="34"/>
-      <c r="BL16" s="34"/>
-      <c r="BM16" s="34"/>
-      <c r="BN16" s="34"/>
-      <c r="BO16" s="34"/>
-      <c r="BP16" s="34"/>
-      <c r="BQ16" s="34"/>
-      <c r="BR16" s="34"/>
-      <c r="BS16" s="34"/>
-      <c r="BT16" s="34"/>
-      <c r="BU16" s="34"/>
-      <c r="BV16" s="34"/>
-      <c r="BW16" s="34"/>
-      <c r="BX16" s="34"/>
-      <c r="BY16" s="34"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="19"/>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="20"/>
+      <c r="BF16" s="20"/>
+      <c r="BG16" s="20"/>
+      <c r="BH16" s="20"/>
+      <c r="BI16" s="20"/>
+      <c r="BJ16" s="20"/>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="20"/>
+      <c r="BM16" s="20"/>
+      <c r="BN16" s="20"/>
+      <c r="BO16" s="20"/>
+      <c r="BP16" s="20"/>
+      <c r="BQ16" s="20"/>
+      <c r="BR16" s="20"/>
+      <c r="BS16" s="20"/>
+      <c r="BT16" s="20"/>
+      <c r="BU16" s="20"/>
+      <c r="BV16" s="20"/>
+      <c r="BW16" s="20"/>
+      <c r="BX16" s="20"/>
+      <c r="BY16" s="20"/>
       <c r="BZ16" s="7"/>
       <c r="CA16" s="7"/>
       <c r="CB16" s="7"/>
@@ -13693,92 +13693,92 @@
     </row>
     <row r="17" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
-      <c r="B17" s="33">
+      <c r="B17" s="19">
         <v>8</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33" t="s">
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" s="33" t="s">
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="33"/>
-      <c r="AX17" s="33"/>
-      <c r="AY17" s="33"/>
-      <c r="AZ17" s="33"/>
-      <c r="BA17" s="33"/>
-      <c r="BB17" s="33"/>
-      <c r="BC17" s="33"/>
-      <c r="BD17" s="34"/>
-      <c r="BE17" s="34"/>
-      <c r="BF17" s="34"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="34"/>
-      <c r="BI17" s="34"/>
-      <c r="BJ17" s="34"/>
-      <c r="BK17" s="34"/>
-      <c r="BL17" s="34"/>
-      <c r="BM17" s="34"/>
-      <c r="BN17" s="34"/>
-      <c r="BO17" s="34"/>
-      <c r="BP17" s="34"/>
-      <c r="BQ17" s="34"/>
-      <c r="BR17" s="34"/>
-      <c r="BS17" s="34"/>
-      <c r="BT17" s="34"/>
-      <c r="BU17" s="34"/>
-      <c r="BV17" s="34"/>
-      <c r="BW17" s="34"/>
-      <c r="BX17" s="34"/>
-      <c r="BY17" s="34"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="19"/>
+      <c r="BB17" s="19"/>
+      <c r="BC17" s="19"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="20"/>
+      <c r="BG17" s="20"/>
+      <c r="BH17" s="20"/>
+      <c r="BI17" s="20"/>
+      <c r="BJ17" s="20"/>
+      <c r="BK17" s="20"/>
+      <c r="BL17" s="20"/>
+      <c r="BM17" s="20"/>
+      <c r="BN17" s="20"/>
+      <c r="BO17" s="20"/>
+      <c r="BP17" s="20"/>
+      <c r="BQ17" s="20"/>
+      <c r="BR17" s="20"/>
+      <c r="BS17" s="20"/>
+      <c r="BT17" s="20"/>
+      <c r="BU17" s="20"/>
+      <c r="BV17" s="20"/>
+      <c r="BW17" s="20"/>
+      <c r="BX17" s="20"/>
+      <c r="BY17" s="20"/>
       <c r="BZ17" s="7"/>
       <c r="CA17" s="7"/>
       <c r="CB17" s="7"/>
@@ -13827,90 +13827,90 @@
     </row>
     <row r="18" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="33">
+      <c r="B18" s="19">
         <v>9</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33" t="s">
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="33"/>
-      <c r="AX18" s="33"/>
-      <c r="AY18" s="33"/>
-      <c r="AZ18" s="33"/>
-      <c r="BA18" s="33"/>
-      <c r="BB18" s="33"/>
-      <c r="BC18" s="33"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="34"/>
-      <c r="BI18" s="34"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="34"/>
-      <c r="BL18" s="34"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="34"/>
-      <c r="BO18" s="34"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="34"/>
-      <c r="BR18" s="34"/>
-      <c r="BS18" s="34"/>
-      <c r="BT18" s="34"/>
-      <c r="BU18" s="34"/>
-      <c r="BV18" s="34"/>
-      <c r="BW18" s="34"/>
-      <c r="BX18" s="34"/>
-      <c r="BY18" s="34"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="19"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="19"/>
+      <c r="AU18" s="19"/>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="19"/>
+      <c r="BA18" s="19"/>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="19"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="20"/>
+      <c r="BG18" s="20"/>
+      <c r="BH18" s="20"/>
+      <c r="BI18" s="20"/>
+      <c r="BJ18" s="20"/>
+      <c r="BK18" s="20"/>
+      <c r="BL18" s="20"/>
+      <c r="BM18" s="20"/>
+      <c r="BN18" s="20"/>
+      <c r="BO18" s="20"/>
+      <c r="BP18" s="20"/>
+      <c r="BQ18" s="20"/>
+      <c r="BR18" s="20"/>
+      <c r="BS18" s="20"/>
+      <c r="BT18" s="20"/>
+      <c r="BU18" s="20"/>
+      <c r="BV18" s="20"/>
+      <c r="BW18" s="20"/>
+      <c r="BX18" s="20"/>
+      <c r="BY18" s="20"/>
       <c r="BZ18" s="7"/>
       <c r="CA18" s="7"/>
       <c r="CB18" s="7"/>
@@ -13959,90 +13959,90 @@
     </row>
     <row r="19" spans="1:128" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
-      <c r="B19" s="33">
+      <c r="B19" s="19">
         <v>10</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33" t="s">
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="33"/>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="33"/>
-      <c r="AX19" s="33"/>
-      <c r="AY19" s="33"/>
-      <c r="AZ19" s="33"/>
-      <c r="BA19" s="33"/>
-      <c r="BB19" s="33"/>
-      <c r="BC19" s="33"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="34"/>
-      <c r="BI19" s="34"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="34"/>
-      <c r="BL19" s="34"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="34"/>
-      <c r="BP19" s="34"/>
-      <c r="BQ19" s="34"/>
-      <c r="BR19" s="34"/>
-      <c r="BS19" s="34"/>
-      <c r="BT19" s="34"/>
-      <c r="BU19" s="34"/>
-      <c r="BV19" s="34"/>
-      <c r="BW19" s="34"/>
-      <c r="BX19" s="34"/>
-      <c r="BY19" s="34"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="20"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="20"/>
+      <c r="BK19" s="20"/>
+      <c r="BL19" s="20"/>
+      <c r="BM19" s="20"/>
+      <c r="BN19" s="20"/>
+      <c r="BO19" s="20"/>
+      <c r="BP19" s="20"/>
+      <c r="BQ19" s="20"/>
+      <c r="BR19" s="20"/>
+      <c r="BS19" s="20"/>
+      <c r="BT19" s="20"/>
+      <c r="BU19" s="20"/>
+      <c r="BV19" s="20"/>
+      <c r="BW19" s="20"/>
+      <c r="BX19" s="20"/>
+      <c r="BY19" s="20"/>
       <c r="BZ19" s="7"/>
       <c r="CA19" s="7"/>
       <c r="CB19" s="7"/>
@@ -14091,86 +14091,6 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="AW18:BC18"/>
-    <mergeCell ref="BD18:BY18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:P19"/>
-    <mergeCell ref="Q19:AB19"/>
-    <mergeCell ref="AC19:AN19"/>
-    <mergeCell ref="AO19:AR19"/>
-    <mergeCell ref="AS19:AV19"/>
-    <mergeCell ref="AW19:BC19"/>
-    <mergeCell ref="BD19:BY19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:P18"/>
-    <mergeCell ref="Q18:AB18"/>
-    <mergeCell ref="AC18:AN18"/>
-    <mergeCell ref="AO18:AR18"/>
-    <mergeCell ref="AS18:AV18"/>
-    <mergeCell ref="AW16:BC16"/>
-    <mergeCell ref="BD16:BY16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="Q17:AB17"/>
-    <mergeCell ref="AC17:AN17"/>
-    <mergeCell ref="AO17:AR17"/>
-    <mergeCell ref="AS17:AV17"/>
-    <mergeCell ref="AW17:BC17"/>
-    <mergeCell ref="BD17:BY17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:P16"/>
-    <mergeCell ref="Q16:AB16"/>
-    <mergeCell ref="AC16:AN16"/>
-    <mergeCell ref="AO16:AR16"/>
-    <mergeCell ref="AS16:AV16"/>
-    <mergeCell ref="AW14:BC14"/>
-    <mergeCell ref="BD14:BY14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="Q15:AB15"/>
-    <mergeCell ref="AC15:AN15"/>
-    <mergeCell ref="AO15:AR15"/>
-    <mergeCell ref="AS15:AV15"/>
-    <mergeCell ref="AW15:BC15"/>
-    <mergeCell ref="BD15:BY15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:P14"/>
-    <mergeCell ref="Q14:AB14"/>
-    <mergeCell ref="AC14:AN14"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AW12:BC12"/>
-    <mergeCell ref="BD12:BY12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="Q13:AB13"/>
-    <mergeCell ref="AC13:AN13"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AW13:BC13"/>
-    <mergeCell ref="BD13:BY13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:P12"/>
-    <mergeCell ref="Q12:AB12"/>
-    <mergeCell ref="AC12:AN12"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:P10"/>
-    <mergeCell ref="Q10:AB10"/>
-    <mergeCell ref="AC10:AN10"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AW10:BC10"/>
-    <mergeCell ref="BD10:BY10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="Q11:AB11"/>
-    <mergeCell ref="AC11:AN11"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AW11:BC11"/>
-    <mergeCell ref="BD11:BY11"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="K7:AB7"/>
     <mergeCell ref="B9:D9"/>
@@ -14194,6 +14114,86 @@
     <mergeCell ref="AS9:AV9"/>
     <mergeCell ref="AW9:BC9"/>
     <mergeCell ref="BD9:BY9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:P10"/>
+    <mergeCell ref="Q10:AB10"/>
+    <mergeCell ref="AC10:AN10"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AW10:BC10"/>
+    <mergeCell ref="BD10:BY10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="Q11:AB11"/>
+    <mergeCell ref="AC11:AN11"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="AW11:BC11"/>
+    <mergeCell ref="BD11:BY11"/>
+    <mergeCell ref="AW12:BC12"/>
+    <mergeCell ref="BD12:BY12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="Q13:AB13"/>
+    <mergeCell ref="AC13:AN13"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AW13:BC13"/>
+    <mergeCell ref="BD13:BY13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:P12"/>
+    <mergeCell ref="Q12:AB12"/>
+    <mergeCell ref="AC12:AN12"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AW14:BC14"/>
+    <mergeCell ref="BD14:BY14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="Q15:AB15"/>
+    <mergeCell ref="AC15:AN15"/>
+    <mergeCell ref="AO15:AR15"/>
+    <mergeCell ref="AS15:AV15"/>
+    <mergeCell ref="AW15:BC15"/>
+    <mergeCell ref="BD15:BY15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:P14"/>
+    <mergeCell ref="Q14:AB14"/>
+    <mergeCell ref="AC14:AN14"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AW16:BC16"/>
+    <mergeCell ref="BD16:BY16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="Q17:AB17"/>
+    <mergeCell ref="AC17:AN17"/>
+    <mergeCell ref="AO17:AR17"/>
+    <mergeCell ref="AS17:AV17"/>
+    <mergeCell ref="AW17:BC17"/>
+    <mergeCell ref="BD17:BY17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:P16"/>
+    <mergeCell ref="Q16:AB16"/>
+    <mergeCell ref="AC16:AN16"/>
+    <mergeCell ref="AO16:AR16"/>
+    <mergeCell ref="AS16:AV16"/>
+    <mergeCell ref="AW18:BC18"/>
+    <mergeCell ref="BD18:BY18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:P19"/>
+    <mergeCell ref="Q19:AB19"/>
+    <mergeCell ref="AC19:AN19"/>
+    <mergeCell ref="AO19:AR19"/>
+    <mergeCell ref="AS19:AV19"/>
+    <mergeCell ref="AW19:BC19"/>
+    <mergeCell ref="BD19:BY19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:P18"/>
+    <mergeCell ref="Q18:AB18"/>
+    <mergeCell ref="AC18:AN18"/>
+    <mergeCell ref="AO18:AR18"/>
+    <mergeCell ref="AS18:AV18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14598,190 +14598,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="23" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="48" t="s">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="23" t="s">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="28" t="s">
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="23" t="s">
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="22">
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="28">
         <v>42548</v>
       </c>
-      <c r="BR1" s="28"/>
-      <c r="BS1" s="28"/>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="28"/>
-      <c r="BV1" s="28"/>
-      <c r="BW1" s="28"/>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="34"/>
+      <c r="BW1" s="34"/>
+      <c r="BX1" s="34"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34"/>
     </row>
     <row r="2" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="23" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="24" t="s">
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="23" t="s">
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="28" t="s">
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28"/>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="23" t="s">
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="23"/>
-      <c r="BO2" s="23"/>
-      <c r="BP2" s="23"/>
-      <c r="BQ2" s="28" t="s">
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="BR2" s="28"/>
-      <c r="BS2" s="28"/>
-      <c r="BT2" s="28"/>
-      <c r="BU2" s="28"/>
-      <c r="BV2" s="28"/>
-      <c r="BW2" s="28"/>
-      <c r="BX2" s="28"/>
-      <c r="BY2" s="28"/>
-      <c r="BZ2" s="28"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
     </row>
     <row r="3" spans="1:128" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
@@ -15090,80 +15090,80 @@
     <row r="6" spans="1:128" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19" t="s">
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="19"/>
-      <c r="BK6" s="19"/>
-      <c r="BL6" s="19"/>
-      <c r="BM6" s="19"/>
-      <c r="BN6" s="19"/>
-      <c r="BO6" s="19"/>
-      <c r="BP6" s="19"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="25"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="25"/>
+      <c r="BA6" s="25"/>
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="25"/>
+      <c r="BD6" s="25"/>
+      <c r="BE6" s="25"/>
+      <c r="BF6" s="25"/>
+      <c r="BG6" s="25"/>
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="25"/>
+      <c r="BJ6" s="25"/>
+      <c r="BK6" s="25"/>
+      <c r="BL6" s="25"/>
+      <c r="BM6" s="25"/>
+      <c r="BN6" s="25"/>
+      <c r="BO6" s="25"/>
+      <c r="BP6" s="25"/>
       <c r="BQ6" s="6"/>
       <c r="BR6" s="6"/>
       <c r="BS6" s="6"/>
@@ -15218,80 +15218,80 @@
     <row r="7" spans="1:128" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="51">
+      <c r="C7" s="48">
         <v>1</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="50">
         <v>42548</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20" t="s">
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="53" t="s">
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
-      <c r="BJ7" s="53"/>
-      <c r="BK7" s="53"/>
-      <c r="BL7" s="53"/>
-      <c r="BM7" s="53"/>
-      <c r="BN7" s="53"/>
-      <c r="BO7" s="53"/>
-      <c r="BP7" s="53"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="51"/>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="51"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="51"/>
+      <c r="AX7" s="51"/>
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="51"/>
+      <c r="BA7" s="51"/>
+      <c r="BB7" s="51"/>
+      <c r="BC7" s="51"/>
+      <c r="BD7" s="51"/>
+      <c r="BE7" s="51"/>
+      <c r="BF7" s="51"/>
+      <c r="BG7" s="51"/>
+      <c r="BH7" s="51"/>
+      <c r="BI7" s="51"/>
+      <c r="BJ7" s="51"/>
+      <c r="BK7" s="51"/>
+      <c r="BL7" s="51"/>
+      <c r="BM7" s="51"/>
+      <c r="BN7" s="51"/>
+      <c r="BO7" s="51"/>
+      <c r="BP7" s="51"/>
       <c r="BQ7" s="6"/>
       <c r="BR7" s="6"/>
       <c r="BS7" s="6"/>
@@ -15347,72 +15347,72 @@
     <row r="8" spans="1:128" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="54"/>
-      <c r="BF8" s="54"/>
-      <c r="BG8" s="54"/>
-      <c r="BH8" s="54"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="54"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="54"/>
-      <c r="BM8" s="54"/>
-      <c r="BN8" s="54"/>
-      <c r="BO8" s="54"/>
-      <c r="BP8" s="54"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="49"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="49"/>
+      <c r="BF8" s="49"/>
+      <c r="BG8" s="49"/>
+      <c r="BH8" s="49"/>
+      <c r="BI8" s="49"/>
+      <c r="BJ8" s="49"/>
+      <c r="BK8" s="49"/>
+      <c r="BL8" s="49"/>
+      <c r="BM8" s="49"/>
+      <c r="BN8" s="49"/>
+      <c r="BO8" s="49"/>
+      <c r="BP8" s="49"/>
       <c r="BQ8" s="8"/>
       <c r="BR8" s="8"/>
       <c r="BS8" s="8"/>
@@ -15443,72 +15443,72 @@
     <row r="9" spans="1:128" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="54"/>
-      <c r="BG9" s="54"/>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
-      <c r="BK9" s="54"/>
-      <c r="BL9" s="54"/>
-      <c r="BM9" s="54"/>
-      <c r="BN9" s="54"/>
-      <c r="BO9" s="54"/>
-      <c r="BP9" s="54"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="49"/>
+      <c r="AZ9" s="49"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="49"/>
+      <c r="BD9" s="49"/>
+      <c r="BE9" s="49"/>
+      <c r="BF9" s="49"/>
+      <c r="BG9" s="49"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="49"/>
+      <c r="BJ9" s="49"/>
+      <c r="BK9" s="49"/>
+      <c r="BL9" s="49"/>
+      <c r="BM9" s="49"/>
+      <c r="BN9" s="49"/>
+      <c r="BO9" s="49"/>
+      <c r="BP9" s="49"/>
       <c r="BQ9" s="7"/>
       <c r="BR9" s="7"/>
       <c r="BS9" s="7"/>
@@ -15539,72 +15539,72 @@
     <row r="10" spans="1:128" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="54"/>
-      <c r="AZ10" s="54"/>
-      <c r="BA10" s="54"/>
-      <c r="BB10" s="54"/>
-      <c r="BC10" s="54"/>
-      <c r="BD10" s="54"/>
-      <c r="BE10" s="54"/>
-      <c r="BF10" s="54"/>
-      <c r="BG10" s="54"/>
-      <c r="BH10" s="54"/>
-      <c r="BI10" s="54"/>
-      <c r="BJ10" s="54"/>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="54"/>
-      <c r="BN10" s="54"/>
-      <c r="BO10" s="54"/>
-      <c r="BP10" s="54"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="49"/>
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="49"/>
+      <c r="AZ10" s="49"/>
+      <c r="BA10" s="49"/>
+      <c r="BB10" s="49"/>
+      <c r="BC10" s="49"/>
+      <c r="BD10" s="49"/>
+      <c r="BE10" s="49"/>
+      <c r="BF10" s="49"/>
+      <c r="BG10" s="49"/>
+      <c r="BH10" s="49"/>
+      <c r="BI10" s="49"/>
+      <c r="BJ10" s="49"/>
+      <c r="BK10" s="49"/>
+      <c r="BL10" s="49"/>
+      <c r="BM10" s="49"/>
+      <c r="BN10" s="49"/>
+      <c r="BO10" s="49"/>
+      <c r="BP10" s="49"/>
       <c r="BQ10" s="7"/>
       <c r="BR10" s="7"/>
       <c r="BS10" s="7"/>
@@ -15635,72 +15635,72 @@
     <row r="11" spans="1:128" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="54"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="54"/>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="54"/>
-      <c r="BA11" s="54"/>
-      <c r="BB11" s="54"/>
-      <c r="BC11" s="54"/>
-      <c r="BD11" s="54"/>
-      <c r="BE11" s="54"/>
-      <c r="BF11" s="54"/>
-      <c r="BG11" s="54"/>
-      <c r="BH11" s="54"/>
-      <c r="BI11" s="54"/>
-      <c r="BJ11" s="54"/>
-      <c r="BK11" s="54"/>
-      <c r="BL11" s="54"/>
-      <c r="BM11" s="54"/>
-      <c r="BN11" s="54"/>
-      <c r="BO11" s="54"/>
-      <c r="BP11" s="54"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="49"/>
+      <c r="AV11" s="49"/>
+      <c r="AW11" s="49"/>
+      <c r="AX11" s="49"/>
+      <c r="AY11" s="49"/>
+      <c r="AZ11" s="49"/>
+      <c r="BA11" s="49"/>
+      <c r="BB11" s="49"/>
+      <c r="BC11" s="49"/>
+      <c r="BD11" s="49"/>
+      <c r="BE11" s="49"/>
+      <c r="BF11" s="49"/>
+      <c r="BG11" s="49"/>
+      <c r="BH11" s="49"/>
+      <c r="BI11" s="49"/>
+      <c r="BJ11" s="49"/>
+      <c r="BK11" s="49"/>
+      <c r="BL11" s="49"/>
+      <c r="BM11" s="49"/>
+      <c r="BN11" s="49"/>
+      <c r="BO11" s="49"/>
+      <c r="BP11" s="49"/>
       <c r="BY11" s="7"/>
       <c r="BZ11" s="5"/>
       <c r="CC11" s="8"/>
@@ -20089,6 +20089,35 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:W2"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BB1:BK1"/>
+    <mergeCell ref="BQ1:BZ1"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AC2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BK2"/>
+    <mergeCell ref="BL2:BP2"/>
+    <mergeCell ref="BQ2:BZ2"/>
+    <mergeCell ref="BL1:BP1"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:BP6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:BP7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:BP8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:BP9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:L10"/>
     <mergeCell ref="M10:R10"/>
@@ -20097,35 +20126,6 @@
     <mergeCell ref="G11:L11"/>
     <mergeCell ref="M11:R11"/>
     <mergeCell ref="S11:BP11"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:BP8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:BP9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:BP6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:BP7"/>
-    <mergeCell ref="BQ1:BZ1"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BK2"/>
-    <mergeCell ref="BL2:BP2"/>
-    <mergeCell ref="BQ2:BZ2"/>
-    <mergeCell ref="BL1:BP1"/>
-    <mergeCell ref="A1:W2"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BB1:BK1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
